--- a/data/dream_team.xlsx
+++ b/data/dream_team.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D254"/>
+  <dimension ref="A1:D2575"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6009,7 +6009,9819 @@
         </is>
       </c>
     </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1257">
+      <c r="A1257" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1258">
+      <c r="A1258" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1259">
+      <c r="A1259" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1260">
+      <c r="A1260" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="A1263" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1520">
+      <c r="A1520" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+      <c r="B1520" t="inlineStr">
+        <is>
+          <t>Jordan Pickford</t>
+        </is>
+      </c>
+      <c r="C1520" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="D1520" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+    </row>
+    <row r="1521">
+      <c r="A1521" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+      <c r="B1521" t="inlineStr">
+        <is>
+          <t>Josko Gvardiol</t>
+        </is>
+      </c>
+      <c r="C1521" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="D1521" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+    </row>
+    <row r="1522">
+      <c r="A1522" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+      <c r="B1522" t="inlineStr">
+        <is>
+          <t>Trent Alexander-Arnold</t>
+        </is>
+      </c>
+      <c r="C1522" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1522" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+    </row>
+    <row r="1523">
+      <c r="A1523" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+      <c r="B1523" t="inlineStr">
+        <is>
+          <t>Nikola Milenkovic</t>
+        </is>
+      </c>
+      <c r="C1523" t="inlineStr">
+        <is>
+          <t>Notts Forest</t>
+        </is>
+      </c>
+      <c r="D1523" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+    </row>
+    <row r="1524">
+      <c r="A1524" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+      <c r="B1524" t="inlineStr">
+        <is>
+          <t>Mohamed Salah</t>
+        </is>
+      </c>
+      <c r="C1524" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1524" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+    </row>
+    <row r="1525">
+      <c r="A1525" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+      <c r="B1525" t="inlineStr">
+        <is>
+          <t>Bryan Mbeumo</t>
+        </is>
+      </c>
+      <c r="C1525" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="D1525" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+    </row>
+    <row r="1526">
+      <c r="A1526" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+      <c r="B1526" t="inlineStr">
+        <is>
+          <t>Cole Palmer</t>
+        </is>
+      </c>
+      <c r="C1526" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1526" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+    </row>
+    <row r="1527">
+      <c r="A1527" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+      <c r="B1527" t="inlineStr">
+        <is>
+          <t>Jarrod Bowen</t>
+        </is>
+      </c>
+      <c r="C1527" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="D1527" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+    </row>
+    <row r="1528">
+      <c r="A1528" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+      <c r="B1528" t="inlineStr">
+        <is>
+          <t>Alexander Isak</t>
+        </is>
+      </c>
+      <c r="C1528" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="D1528" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+    </row>
+    <row r="1529">
+      <c r="A1529" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+      <c r="B1529" t="inlineStr">
+        <is>
+          <t>Chris Wood</t>
+        </is>
+      </c>
+      <c r="C1529" t="inlineStr">
+        <is>
+          <t>Notts Forest</t>
+        </is>
+      </c>
+      <c r="D1529" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="1530">
+      <c r="A1530" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+      <c r="B1530" t="inlineStr">
+        <is>
+          <t>Ollie Watkins</t>
+        </is>
+      </c>
+      <c r="C1530" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="D1530" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+    </row>
+    <row r="1531">
+      <c r="A1531" t="inlineStr">
+        <is>
+          <t>2023/24</t>
+        </is>
+      </c>
+      <c r="B1531" t="inlineStr">
+        <is>
+          <t>Jordan Pickford</t>
+        </is>
+      </c>
+      <c r="C1531" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="D1531" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+    </row>
+    <row r="1532">
+      <c r="A1532" t="inlineStr">
+        <is>
+          <t>2023/24</t>
+        </is>
+      </c>
+      <c r="B1532" t="inlineStr">
+        <is>
+          <t>Ben White</t>
+        </is>
+      </c>
+      <c r="C1532" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D1532" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+    </row>
+    <row r="1533">
+      <c r="A1533" t="inlineStr">
+        <is>
+          <t>2023/24</t>
+        </is>
+      </c>
+      <c r="B1533" t="inlineStr">
+        <is>
+          <t>William Saliba</t>
+        </is>
+      </c>
+      <c r="C1533" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D1533" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+    </row>
+    <row r="1534">
+      <c r="A1534" t="inlineStr">
+        <is>
+          <t>2023/24</t>
+        </is>
+      </c>
+      <c r="B1534" t="inlineStr">
+        <is>
+          <t>Gabriel Magalhaes</t>
+        </is>
+      </c>
+      <c r="C1534" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D1534" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+    </row>
+    <row r="1535">
+      <c r="A1535" t="inlineStr">
+        <is>
+          <t>2023/24</t>
+        </is>
+      </c>
+      <c r="B1535" t="inlineStr">
+        <is>
+          <t>Cole Palmer</t>
+        </is>
+      </c>
+      <c r="C1535" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1535" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+    </row>
+    <row r="1536">
+      <c r="A1536" t="inlineStr">
+        <is>
+          <t>2023/24</t>
+        </is>
+      </c>
+      <c r="B1536" t="inlineStr">
+        <is>
+          <t>Phil Foden</t>
+        </is>
+      </c>
+      <c r="C1536" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="D1536" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+    </row>
+    <row r="1537">
+      <c r="A1537" t="inlineStr">
+        <is>
+          <t>2023/24</t>
+        </is>
+      </c>
+      <c r="B1537" t="inlineStr">
+        <is>
+          <t>Bukayo Saka</t>
+        </is>
+      </c>
+      <c r="C1537" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D1537" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+    </row>
+    <row r="1538">
+      <c r="A1538" t="inlineStr">
+        <is>
+          <t>2023/24</t>
+        </is>
+      </c>
+      <c r="B1538" t="inlineStr">
+        <is>
+          <t>Heung Min Son</t>
+        </is>
+      </c>
+      <c r="C1538" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="D1538" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+    </row>
+    <row r="1539">
+      <c r="A1539" t="inlineStr">
+        <is>
+          <t>2023/24</t>
+        </is>
+      </c>
+      <c r="B1539" t="inlineStr">
+        <is>
+          <t>Mohamed Salah</t>
+        </is>
+      </c>
+      <c r="C1539" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1539" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+    </row>
+    <row r="1540">
+      <c r="A1540" t="inlineStr">
+        <is>
+          <t>2023/24</t>
+        </is>
+      </c>
+      <c r="B1540" t="inlineStr">
+        <is>
+          <t>Ollie Watkins</t>
+        </is>
+      </c>
+      <c r="C1540" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="D1540" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+    </row>
+    <row r="1541">
+      <c r="A1541" t="inlineStr">
+        <is>
+          <t>2023/24</t>
+        </is>
+      </c>
+      <c r="B1541" t="inlineStr">
+        <is>
+          <t>Erling Haaland</t>
+        </is>
+      </c>
+      <c r="C1541" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="D1541" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+    </row>
+    <row r="1542">
+      <c r="B1542" t="inlineStr">
+        <is>
+          <t>David Raya</t>
+        </is>
+      </c>
+      <c r="C1542" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="D1542" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+    </row>
+    <row r="1543">
+      <c r="B1543" t="inlineStr">
+        <is>
+          <t>Kieran Trippier</t>
+        </is>
+      </c>
+      <c r="C1543" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="D1543" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+    </row>
+    <row r="1544">
+      <c r="B1544" t="inlineStr">
+        <is>
+          <t>Ben White</t>
+        </is>
+      </c>
+      <c r="C1544" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D1544" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+    </row>
+    <row r="1545">
+      <c r="B1545" t="inlineStr">
+        <is>
+          <t>Trent Alexander-Arnold</t>
+        </is>
+      </c>
+      <c r="C1545" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1545" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+    </row>
+    <row r="1546">
+      <c r="B1546" t="inlineStr">
+        <is>
+          <t>Mohamed Salah</t>
+        </is>
+      </c>
+      <c r="C1546" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1546" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+    </row>
+    <row r="1547">
+      <c r="B1547" t="inlineStr">
+        <is>
+          <t>Martin Odegaard</t>
+        </is>
+      </c>
+      <c r="C1547" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D1547" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+    </row>
+    <row r="1548">
+      <c r="B1548" t="inlineStr">
+        <is>
+          <t>Marcus Rashford</t>
+        </is>
+      </c>
+      <c r="C1548" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="D1548" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+    </row>
+    <row r="1549">
+      <c r="B1549" t="inlineStr">
+        <is>
+          <t>Bukayo Saka</t>
+        </is>
+      </c>
+      <c r="C1549" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D1549" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+    </row>
+    <row r="1550">
+      <c r="B1550" t="inlineStr">
+        <is>
+          <t>Gabriel Martinelli</t>
+        </is>
+      </c>
+      <c r="C1550" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D1550" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+    </row>
+    <row r="1551">
+      <c r="B1551" t="inlineStr">
+        <is>
+          <t>Erling Haaland</t>
+        </is>
+      </c>
+      <c r="C1551" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="D1551" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+    </row>
+    <row r="1552">
+      <c r="B1552" t="inlineStr">
+        <is>
+          <t>Harry Kane</t>
+        </is>
+      </c>
+      <c r="C1552" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="D1552" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+    </row>
+    <row r="1553">
+      <c r="B1553" t="inlineStr">
+        <is>
+          <t>Alisson Becker</t>
+        </is>
+      </c>
+      <c r="C1553" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1553" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+    </row>
+    <row r="1554">
+      <c r="B1554" t="inlineStr">
+        <is>
+          <t>Trent Alexander-Arnold</t>
+        </is>
+      </c>
+      <c r="C1554" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1554" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+    </row>
+    <row r="1555">
+      <c r="B1555" t="inlineStr">
+        <is>
+          <t>Joao Cancelo</t>
+        </is>
+      </c>
+      <c r="C1555" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="D1555" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+    </row>
+    <row r="1556">
+      <c r="B1556" t="inlineStr">
+        <is>
+          <t>Andrew Robertson</t>
+        </is>
+      </c>
+      <c r="C1556" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1556" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+    </row>
+    <row r="1557">
+      <c r="B1557" t="inlineStr">
+        <is>
+          <t>Virgil van Dijk</t>
+        </is>
+      </c>
+      <c r="C1557" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1557" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+    </row>
+    <row r="1558">
+      <c r="B1558" t="inlineStr">
+        <is>
+          <t>Mohamed Salah</t>
+        </is>
+      </c>
+      <c r="C1558" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1558" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+    </row>
+    <row r="1559">
+      <c r="B1559" t="inlineStr">
+        <is>
+          <t>Heung Min Son</t>
+        </is>
+      </c>
+      <c r="C1559" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="D1559" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+    </row>
+    <row r="1560">
+      <c r="B1560" t="inlineStr">
+        <is>
+          <t>Jarrod Bowen</t>
+        </is>
+      </c>
+      <c r="C1560" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="D1560" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+    </row>
+    <row r="1561">
+      <c r="B1561" t="inlineStr">
+        <is>
+          <t>Kevin De Bruyne</t>
+        </is>
+      </c>
+      <c r="C1561" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="D1561" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+    </row>
+    <row r="1562">
+      <c r="B1562" t="inlineStr">
+        <is>
+          <t>Sadio Mane</t>
+        </is>
+      </c>
+      <c r="C1562" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1562" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+    </row>
+    <row r="1563">
+      <c r="B1563" t="inlineStr">
+        <is>
+          <t>Harry Kane</t>
+        </is>
+      </c>
+      <c r="C1563" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="D1563" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+    </row>
+    <row r="1564">
+      <c r="B1564" t="inlineStr">
+        <is>
+          <t>Emiliano Martinez</t>
+        </is>
+      </c>
+      <c r="C1564" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="D1564" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+    </row>
+    <row r="1565">
+      <c r="B1565" t="inlineStr">
+        <is>
+          <t>Stuart Dallas</t>
+        </is>
+      </c>
+      <c r="C1565" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="D1565" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+    </row>
+    <row r="1566">
+      <c r="B1566" t="inlineStr">
+        <is>
+          <t>Andrew Robertson</t>
+        </is>
+      </c>
+      <c r="C1566" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1566" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+    </row>
+    <row r="1567">
+      <c r="B1567" t="inlineStr">
+        <is>
+          <t>Trent Alexander-Arnold</t>
+        </is>
+      </c>
+      <c r="C1567" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1567" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+    </row>
+    <row r="1568">
+      <c r="B1568" t="inlineStr">
+        <is>
+          <t>Bruno Fernandes</t>
+        </is>
+      </c>
+      <c r="C1568" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="D1568" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+    </row>
+    <row r="1569">
+      <c r="B1569" t="inlineStr">
+        <is>
+          <t>Mohamed Salah</t>
+        </is>
+      </c>
+      <c r="C1569" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1569" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+    </row>
+    <row r="1570">
+      <c r="B1570" t="inlineStr">
+        <is>
+          <t>Heung Min Son</t>
+        </is>
+      </c>
+      <c r="C1570" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="D1570" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+    </row>
+    <row r="1571">
+      <c r="B1571" t="inlineStr">
+        <is>
+          <t>Sadio Mane</t>
+        </is>
+      </c>
+      <c r="C1571" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1571" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+    </row>
+    <row r="1572">
+      <c r="B1572" t="inlineStr">
+        <is>
+          <t>Harry Kane</t>
+        </is>
+      </c>
+      <c r="C1572" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="D1572" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+    </row>
+    <row r="1573">
+      <c r="B1573" t="inlineStr">
+        <is>
+          <t>Patrick Bamford</t>
+        </is>
+      </c>
+      <c r="C1573" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="D1573" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+    </row>
+    <row r="1574">
+      <c r="B1574" t="inlineStr">
+        <is>
+          <t>Jamie Vardy</t>
+        </is>
+      </c>
+      <c r="C1574" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="D1574" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+    </row>
+    <row r="1575">
+      <c r="B1575" t="inlineStr">
+        <is>
+          <t>Nick Pope</t>
+        </is>
+      </c>
+      <c r="C1575" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="D1575" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+    </row>
+    <row r="1576">
+      <c r="B1576" t="inlineStr">
+        <is>
+          <t>Trent Alexander-Arnold</t>
+        </is>
+      </c>
+      <c r="C1576" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1576" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+    </row>
+    <row r="1577">
+      <c r="B1577" t="inlineStr">
+        <is>
+          <t>Andrew Robertson</t>
+        </is>
+      </c>
+      <c r="C1577" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1577" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+    </row>
+    <row r="1578">
+      <c r="B1578" t="inlineStr">
+        <is>
+          <t>Virgil van Dijk</t>
+        </is>
+      </c>
+      <c r="C1578" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1578" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+    </row>
+    <row r="1579">
+      <c r="B1579" t="inlineStr">
+        <is>
+          <t>Kevin De Bruyne</t>
+        </is>
+      </c>
+      <c r="C1579" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="D1579" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+    </row>
+    <row r="1580">
+      <c r="B1580" t="inlineStr">
+        <is>
+          <t>Mohamed Salah</t>
+        </is>
+      </c>
+      <c r="C1580" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1580" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+    </row>
+    <row r="1581">
+      <c r="B1581" t="inlineStr">
+        <is>
+          <t>Sadio Mane</t>
+        </is>
+      </c>
+      <c r="C1581" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1581" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+    </row>
+    <row r="1582">
+      <c r="B1582" t="inlineStr">
+        <is>
+          <t>Raheem Sterling</t>
+        </is>
+      </c>
+      <c r="C1582" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="D1582" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1583">
+      <c r="B1583" t="inlineStr">
+        <is>
+          <t>Anthony Martial</t>
+        </is>
+      </c>
+      <c r="C1583" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="D1583" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="1584">
+      <c r="B1584" t="inlineStr">
+        <is>
+          <t>Jamie Vardy</t>
+        </is>
+      </c>
+      <c r="C1584" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="D1584" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+    </row>
+    <row r="1585">
+      <c r="B1585" t="inlineStr">
+        <is>
+          <t>Pierre Aubameyang</t>
+        </is>
+      </c>
+      <c r="C1585" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D1585" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+    </row>
+    <row r="1586">
+      <c r="B1586" t="inlineStr">
+        <is>
+          <t>Alisson Becker</t>
+        </is>
+      </c>
+      <c r="C1586" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1586" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+    </row>
+    <row r="1587">
+      <c r="B1587" t="inlineStr">
+        <is>
+          <t>Andrew Robertson</t>
+        </is>
+      </c>
+      <c r="C1587" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1587" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+    </row>
+    <row r="1588">
+      <c r="B1588" t="inlineStr">
+        <is>
+          <t>Virgil van Dijk</t>
+        </is>
+      </c>
+      <c r="C1588" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1588" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+    </row>
+    <row r="1589">
+      <c r="B1589" t="inlineStr">
+        <is>
+          <t>Trent Alexander-Arnold</t>
+        </is>
+      </c>
+      <c r="C1589" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1589" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+    </row>
+    <row r="1590">
+      <c r="B1590" t="inlineStr">
+        <is>
+          <t>Mohamed Salah</t>
+        </is>
+      </c>
+      <c r="C1590" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1590" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+    </row>
+    <row r="1591">
+      <c r="B1591" t="inlineStr">
+        <is>
+          <t>Eden Hazard</t>
+        </is>
+      </c>
+      <c r="C1591" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1591" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+    </row>
+    <row r="1592">
+      <c r="B1592" t="inlineStr">
+        <is>
+          <t>Raheem Sterling</t>
+        </is>
+      </c>
+      <c r="C1592" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="D1592" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+    </row>
+    <row r="1593">
+      <c r="B1593" t="inlineStr">
+        <is>
+          <t>Sadio Mane</t>
+        </is>
+      </c>
+      <c r="C1593" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1593" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+    </row>
+    <row r="1594">
+      <c r="B1594" t="inlineStr">
+        <is>
+          <t>Gylfi Sigurdsson</t>
+        </is>
+      </c>
+      <c r="C1594" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="D1594" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+    </row>
+    <row r="1595">
+      <c r="B1595" t="inlineStr">
+        <is>
+          <t>Pierre Aubameyang</t>
+        </is>
+      </c>
+      <c r="C1595" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D1595" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+    </row>
+    <row r="1596">
+      <c r="B1596" t="inlineStr">
+        <is>
+          <t>Sergio Aguero</t>
+        </is>
+      </c>
+      <c r="C1596" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="D1596" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+    </row>
+    <row r="1597">
+      <c r="B1597" t="inlineStr">
+        <is>
+          <t>David De Gea</t>
+        </is>
+      </c>
+      <c r="C1597" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="D1597" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+    </row>
+    <row r="1598">
+      <c r="B1598" t="inlineStr">
+        <is>
+          <t>Cesar Azpilicueta</t>
+        </is>
+      </c>
+      <c r="C1598" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1598" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+    </row>
+    <row r="1599">
+      <c r="B1599" t="inlineStr">
+        <is>
+          <t>Marcos Alonso</t>
+        </is>
+      </c>
+      <c r="C1599" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1599" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+    </row>
+    <row r="1600">
+      <c r="B1600" t="inlineStr">
+        <is>
+          <t>Nicolas Otamendi</t>
+        </is>
+      </c>
+      <c r="C1600" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="D1600" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+    </row>
+    <row r="1601">
+      <c r="B1601" t="inlineStr">
+        <is>
+          <t>Mohamed Salah</t>
+        </is>
+      </c>
+      <c r="C1601" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1601" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+    </row>
+    <row r="1602">
+      <c r="B1602" t="inlineStr">
+        <is>
+          <t>Raheem Sterling</t>
+        </is>
+      </c>
+      <c r="C1602" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="D1602" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+    </row>
+    <row r="1603">
+      <c r="B1603" t="inlineStr">
+        <is>
+          <t>Kevin De Bruyne</t>
+        </is>
+      </c>
+      <c r="C1603" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="D1603" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+    </row>
+    <row r="1604">
+      <c r="B1604" t="inlineStr">
+        <is>
+          <t>Christian Eriksen</t>
+        </is>
+      </c>
+      <c r="C1604" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="D1604" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+    </row>
+    <row r="1605">
+      <c r="B1605" t="inlineStr">
+        <is>
+          <t>Riyad Mahrez</t>
+        </is>
+      </c>
+      <c r="C1605" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="D1605" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+    </row>
+    <row r="1606">
+      <c r="B1606" t="inlineStr">
+        <is>
+          <t>Harry Kane</t>
+        </is>
+      </c>
+      <c r="C1606" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="D1606" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+    </row>
+    <row r="1607">
+      <c r="B1607" t="inlineStr">
+        <is>
+          <t>Jamie Vardy</t>
+        </is>
+      </c>
+      <c r="C1607" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="D1607" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+    </row>
+    <row r="1608">
+      <c r="B1608" t="inlineStr">
+        <is>
+          <t>Tom Heaton</t>
+        </is>
+      </c>
+      <c r="C1608" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="D1608" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+    </row>
+    <row r="1609">
+      <c r="B1609" t="inlineStr">
+        <is>
+          <t>Gary Cahill</t>
+        </is>
+      </c>
+      <c r="C1609" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1609" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+    </row>
+    <row r="1610">
+      <c r="B1610" t="inlineStr">
+        <is>
+          <t>Marcos Alonso</t>
+        </is>
+      </c>
+      <c r="C1610" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1610" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+    </row>
+    <row r="1611">
+      <c r="B1611" t="inlineStr">
+        <is>
+          <t>Cesar Azpilicueta</t>
+        </is>
+      </c>
+      <c r="C1611" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1611" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+    </row>
+    <row r="1612">
+      <c r="B1612" t="inlineStr">
+        <is>
+          <t>Alexis Sanchez</t>
+        </is>
+      </c>
+      <c r="C1612" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D1612" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+    </row>
+    <row r="1613">
+      <c r="B1613" t="inlineStr">
+        <is>
+          <t>Dele Alli</t>
+        </is>
+      </c>
+      <c r="C1613" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="D1613" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+    </row>
+    <row r="1614">
+      <c r="B1614" t="inlineStr">
+        <is>
+          <t>Eden Hazard</t>
+        </is>
+      </c>
+      <c r="C1614" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1614" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+    </row>
+    <row r="1615">
+      <c r="B1615" t="inlineStr">
+        <is>
+          <t>Christian Eriksen</t>
+        </is>
+      </c>
+      <c r="C1615" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="D1615" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+    </row>
+    <row r="1616">
+      <c r="B1616" t="inlineStr">
+        <is>
+          <t>Kevin De Bruyne</t>
+        </is>
+      </c>
+      <c r="C1616" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="D1616" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+    </row>
+    <row r="1617">
+      <c r="B1617" t="inlineStr">
+        <is>
+          <t>Harry Kane</t>
+        </is>
+      </c>
+      <c r="C1617" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="D1617" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+    </row>
+    <row r="1618">
+      <c r="B1618" t="inlineStr">
+        <is>
+          <t>Romelu Lukaku</t>
+        </is>
+      </c>
+      <c r="C1618" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="D1618" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+    </row>
+    <row r="1619">
+      <c r="B1619" t="inlineStr">
+        <is>
+          <t>Petr Cech</t>
+        </is>
+      </c>
+      <c r="C1619" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D1619" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+    </row>
+    <row r="1620">
+      <c r="B1620" t="inlineStr">
+        <is>
+          <t>Hector Bellerin</t>
+        </is>
+      </c>
+      <c r="C1620" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D1620" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+    </row>
+    <row r="1621">
+      <c r="B1621" t="inlineStr">
+        <is>
+          <t>Toby Alderweireld</t>
+        </is>
+      </c>
+      <c r="C1621" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="D1621" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+    </row>
+    <row r="1622">
+      <c r="B1622" t="inlineStr">
+        <is>
+          <t>Laurent Koscielny</t>
+        </is>
+      </c>
+      <c r="C1622" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D1622" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+    </row>
+    <row r="1623">
+      <c r="B1623" t="inlineStr">
+        <is>
+          <t>Riyad Mahrez</t>
+        </is>
+      </c>
+      <c r="C1623" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="D1623" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+    </row>
+    <row r="1624">
+      <c r="B1624" t="inlineStr">
+        <is>
+          <t>Mesut Ozil</t>
+        </is>
+      </c>
+      <c r="C1624" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D1624" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="1625">
+      <c r="B1625" t="inlineStr">
+        <is>
+          <t>Christian Eriksen</t>
+        </is>
+      </c>
+      <c r="C1625" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="D1625" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+    </row>
+    <row r="1626">
+      <c r="B1626" t="inlineStr">
+        <is>
+          <t>Andre Ayew</t>
+        </is>
+      </c>
+      <c r="C1626" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="D1626" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+    </row>
+    <row r="1627">
+      <c r="B1627" t="inlineStr">
+        <is>
+          <t>Jamie Vardy</t>
+        </is>
+      </c>
+      <c r="C1627" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="D1627" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+    </row>
+    <row r="1628">
+      <c r="B1628" t="inlineStr">
+        <is>
+          <t>Harry Kane</t>
+        </is>
+      </c>
+      <c r="C1628" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="D1628" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+    </row>
+    <row r="1629">
+      <c r="B1629" t="inlineStr">
+        <is>
+          <t>Romelu Lukaku</t>
+        </is>
+      </c>
+      <c r="C1629" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="D1629" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+    </row>
+    <row r="1630">
+      <c r="B1630" t="inlineStr">
+        <is>
+          <t>Lukasz Fabianski</t>
+        </is>
+      </c>
+      <c r="C1630" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="D1630" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+    </row>
+    <row r="1631">
+      <c r="B1631" t="inlineStr">
+        <is>
+          <t>Branislav Ivanovic</t>
+        </is>
+      </c>
+      <c r="C1631" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1631" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+    </row>
+    <row r="1632">
+      <c r="B1632" t="inlineStr">
+        <is>
+          <t>John Terry</t>
+        </is>
+      </c>
+      <c r="C1632" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1632" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+    </row>
+    <row r="1633">
+      <c r="B1633" t="inlineStr">
+        <is>
+          <t>Phil Jagielka</t>
+        </is>
+      </c>
+      <c r="C1633" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="D1633" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+    </row>
+    <row r="1634">
+      <c r="B1634" t="inlineStr">
+        <is>
+          <t>Eden Hazard</t>
+        </is>
+      </c>
+      <c r="C1634" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1634" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+    </row>
+    <row r="1635">
+      <c r="B1635" t="inlineStr">
+        <is>
+          <t>Alexis Sanchez</t>
+        </is>
+      </c>
+      <c r="C1635" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D1635" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+    </row>
+    <row r="1636">
+      <c r="B1636" t="inlineStr">
+        <is>
+          <t>David Silva</t>
+        </is>
+      </c>
+      <c r="C1636" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="D1636" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+    </row>
+    <row r="1637">
+      <c r="B1637" t="inlineStr">
+        <is>
+          <t>Santi Cazorla</t>
+        </is>
+      </c>
+      <c r="C1637" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D1637" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+    </row>
+    <row r="1638">
+      <c r="B1638" t="inlineStr">
+        <is>
+          <t>Sergio Aguero</t>
+        </is>
+      </c>
+      <c r="C1638" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="D1638" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+    </row>
+    <row r="1639">
+      <c r="B1639" t="inlineStr">
+        <is>
+          <t>Harry Kane</t>
+        </is>
+      </c>
+      <c r="C1639" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="D1639" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+    </row>
+    <row r="1640">
+      <c r="B1640" t="inlineStr">
+        <is>
+          <t>Charlie Austin</t>
+        </is>
+      </c>
+      <c r="C1640" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="D1640" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+    </row>
+    <row r="1641">
+      <c r="B1641" t="inlineStr">
+        <is>
+          <t>Tim Howard</t>
+        </is>
+      </c>
+      <c r="C1641" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="D1641" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+    </row>
+    <row r="1642">
+      <c r="B1642" t="inlineStr">
+        <is>
+          <t>Seamus Coleman</t>
+        </is>
+      </c>
+      <c r="C1642" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="D1642" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+    </row>
+    <row r="1643">
+      <c r="B1643" t="inlineStr">
+        <is>
+          <t>John Terry</t>
+        </is>
+      </c>
+      <c r="C1643" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1643" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+    </row>
+    <row r="1644">
+      <c r="B1644" t="inlineStr">
+        <is>
+          <t>Leighton Baines</t>
+        </is>
+      </c>
+      <c r="C1644" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="D1644" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+    </row>
+    <row r="1645">
+      <c r="B1645" t="inlineStr">
+        <is>
+          <t>Yaya Toure</t>
+        </is>
+      </c>
+      <c r="C1645" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="D1645" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+    </row>
+    <row r="1646">
+      <c r="B1646" t="inlineStr">
+        <is>
+          <t>Steven Gerrard</t>
+        </is>
+      </c>
+      <c r="C1646" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1646" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+    </row>
+    <row r="1647">
+      <c r="B1647" t="inlineStr">
+        <is>
+          <t>Eden Hazard</t>
+        </is>
+      </c>
+      <c r="C1647" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1647" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+    </row>
+    <row r="1648">
+      <c r="B1648" t="inlineStr">
+        <is>
+          <t>Adam Lallana</t>
+        </is>
+      </c>
+      <c r="C1648" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="D1648" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+    </row>
+    <row r="1649">
+      <c r="B1649" t="inlineStr">
+        <is>
+          <t>Luis Suarez</t>
+        </is>
+      </c>
+      <c r="C1649" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1649" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+    </row>
+    <row r="1650">
+      <c r="B1650" t="inlineStr">
+        <is>
+          <t>Daniel Sturridge</t>
+        </is>
+      </c>
+      <c r="C1650" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1650" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+    </row>
+    <row r="1651">
+      <c r="B1651" t="inlineStr">
+        <is>
+          <t>Wayne Rooney</t>
+        </is>
+      </c>
+      <c r="C1651" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="D1651" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+    </row>
+    <row r="1652">
+      <c r="B1652" t="inlineStr">
+        <is>
+          <t>Joe Hart</t>
+        </is>
+      </c>
+      <c r="C1652" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="D1652" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+    </row>
+    <row r="1653">
+      <c r="B1653" t="inlineStr">
+        <is>
+          <t>Leighton Baines</t>
+        </is>
+      </c>
+      <c r="C1653" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="D1653" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+    </row>
+    <row r="1654">
+      <c r="B1654" t="inlineStr">
+        <is>
+          <t>Patrice Evra</t>
+        </is>
+      </c>
+      <c r="C1654" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="D1654" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+    </row>
+    <row r="1655">
+      <c r="B1655" t="inlineStr">
+        <is>
+          <t>Branislav Ivanovic</t>
+        </is>
+      </c>
+      <c r="C1655" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1655" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+    </row>
+    <row r="1656">
+      <c r="B1656" t="inlineStr">
+        <is>
+          <t>Gareth Bale</t>
+        </is>
+      </c>
+      <c r="C1656" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="D1656" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+    </row>
+    <row r="1657">
+      <c r="B1657" t="inlineStr">
+        <is>
+          <t>Juan Mata</t>
+        </is>
+      </c>
+      <c r="C1657" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1657" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+    </row>
+    <row r="1658">
+      <c r="B1658" t="inlineStr">
+        <is>
+          <t>Santi Cazorla</t>
+        </is>
+      </c>
+      <c r="C1658" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D1658" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+    </row>
+    <row r="1659">
+      <c r="B1659" t="inlineStr">
+        <is>
+          <t>Theo Walcott</t>
+        </is>
+      </c>
+      <c r="C1659" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D1659" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+    </row>
+    <row r="1660">
+      <c r="B1660" t="inlineStr">
+        <is>
+          <t>Michu</t>
+        </is>
+      </c>
+      <c r="C1660" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="D1660" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+    </row>
+    <row r="1661">
+      <c r="B1661" t="inlineStr">
+        <is>
+          <t>Robin van Persie</t>
+        </is>
+      </c>
+      <c r="C1661" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="D1661" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+    </row>
+    <row r="1662">
+      <c r="B1662" t="inlineStr">
+        <is>
+          <t>Luis Suarez</t>
+        </is>
+      </c>
+      <c r="C1662" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1662" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+    </row>
+    <row r="1663">
+      <c r="B1663" t="inlineStr">
+        <is>
+          <t>Joe Hart</t>
+        </is>
+      </c>
+      <c r="C1663" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="D1663" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+    </row>
+    <row r="1664">
+      <c r="B1664" t="inlineStr">
+        <is>
+          <t>Patrice Evra</t>
+        </is>
+      </c>
+      <c r="C1664" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="D1664" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+    </row>
+    <row r="1665">
+      <c r="B1665" t="inlineStr">
+        <is>
+          <t>Vincent Kompany</t>
+        </is>
+      </c>
+      <c r="C1665" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="D1665" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+    </row>
+    <row r="1666">
+      <c r="B1666" t="inlineStr">
+        <is>
+          <t>Kyle Walker</t>
+        </is>
+      </c>
+      <c r="C1666" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="D1666" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+    </row>
+    <row r="1667">
+      <c r="B1667" t="inlineStr">
+        <is>
+          <t>Clint Dempsey</t>
+        </is>
+      </c>
+      <c r="C1667" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="D1667" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+    </row>
+    <row r="1668">
+      <c r="B1668" t="inlineStr">
+        <is>
+          <t>Gareth Bale</t>
+        </is>
+      </c>
+      <c r="C1668" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="D1668" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+    </row>
+    <row r="1669">
+      <c r="B1669" t="inlineStr">
+        <is>
+          <t>David Silva</t>
+        </is>
+      </c>
+      <c r="C1669" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="D1669" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+    </row>
+    <row r="1670">
+      <c r="B1670" t="inlineStr">
+        <is>
+          <t>Theo Walcott</t>
+        </is>
+      </c>
+      <c r="C1670" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D1670" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+    </row>
+    <row r="1671">
+      <c r="B1671" t="inlineStr">
+        <is>
+          <t>Robin van Persie</t>
+        </is>
+      </c>
+      <c r="C1671" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="D1671" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+    </row>
+    <row r="1672">
+      <c r="B1672" t="inlineStr">
+        <is>
+          <t>Wayne Rooney</t>
+        </is>
+      </c>
+      <c r="C1672" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="D1672" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+    </row>
+    <row r="1673">
+      <c r="B1673" t="inlineStr">
+        <is>
+          <t>Sergio Aguero</t>
+        </is>
+      </c>
+      <c r="C1673" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="D1673" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+    </row>
+    <row r="1674">
+      <c r="B1674" t="inlineStr">
+        <is>
+          <t>Joe Hart</t>
+        </is>
+      </c>
+      <c r="C1674" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="D1674" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+    </row>
+    <row r="1675">
+      <c r="B1675" t="inlineStr">
+        <is>
+          <t>Leighton Baines</t>
+        </is>
+      </c>
+      <c r="C1675" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="D1675" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+    </row>
+    <row r="1676">
+      <c r="B1676" t="inlineStr">
+        <is>
+          <t>Brede Hangeland</t>
+        </is>
+      </c>
+      <c r="C1676" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="D1676" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+    </row>
+    <row r="1677">
+      <c r="B1677" t="inlineStr">
+        <is>
+          <t>Ashley Cole</t>
+        </is>
+      </c>
+      <c r="C1677" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1677" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+    </row>
+    <row r="1678">
+      <c r="B1678" t="inlineStr">
+        <is>
+          <t>Luis Nani</t>
+        </is>
+      </c>
+      <c r="C1678" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="D1678" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+    </row>
+    <row r="1679">
+      <c r="B1679" t="inlineStr">
+        <is>
+          <t>Charlie Adam</t>
+        </is>
+      </c>
+      <c r="C1679" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="D1679" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+    </row>
+    <row r="1680">
+      <c r="B1680" t="inlineStr">
+        <is>
+          <t>Florent Malouda</t>
+        </is>
+      </c>
+      <c r="C1680" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1680" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+    </row>
+    <row r="1681">
+      <c r="B1681" t="inlineStr">
+        <is>
+          <t>Dirk Kuyt</t>
+        </is>
+      </c>
+      <c r="C1681" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1681" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+    </row>
+    <row r="1682">
+      <c r="B1682" t="inlineStr">
+        <is>
+          <t>Carlos Tevez</t>
+        </is>
+      </c>
+      <c r="C1682" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="D1682" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+    </row>
+    <row r="1683">
+      <c r="B1683" t="inlineStr">
+        <is>
+          <t>Dimitar Berbatov</t>
+        </is>
+      </c>
+      <c r="C1683" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="D1683" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+    </row>
+    <row r="1684">
+      <c r="B1684" t="inlineStr">
+        <is>
+          <t>Didier Drogba</t>
+        </is>
+      </c>
+      <c r="C1684" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1684" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+    </row>
+    <row r="1685">
+      <c r="B1685" t="inlineStr">
+        <is>
+          <t>Pepe Reina</t>
+        </is>
+      </c>
+      <c r="C1685" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1685" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+    </row>
+    <row r="1686">
+      <c r="B1686" t="inlineStr">
+        <is>
+          <t>Patrice Evra</t>
+        </is>
+      </c>
+      <c r="C1686" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="D1686" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+    </row>
+    <row r="1687">
+      <c r="B1687" t="inlineStr">
+        <is>
+          <t>Richard Dunne</t>
+        </is>
+      </c>
+      <c r="C1687" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="D1687" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+    </row>
+    <row r="1688">
+      <c r="B1688" t="inlineStr">
+        <is>
+          <t>John Terry</t>
+        </is>
+      </c>
+      <c r="C1688" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1688" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+    </row>
+    <row r="1689">
+      <c r="B1689" t="inlineStr">
+        <is>
+          <t>Frank Lampard</t>
+        </is>
+      </c>
+      <c r="C1689" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1689" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+    </row>
+    <row r="1690">
+      <c r="B1690" t="inlineStr">
+        <is>
+          <t>Cesc Fabregas</t>
+        </is>
+      </c>
+      <c r="C1690" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D1690" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+    </row>
+    <row r="1691">
+      <c r="B1691" t="inlineStr">
+        <is>
+          <t>James Milner</t>
+        </is>
+      </c>
+      <c r="C1691" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="D1691" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+    </row>
+    <row r="1692">
+      <c r="B1692" t="inlineStr">
+        <is>
+          <t>Florent Malouda</t>
+        </is>
+      </c>
+      <c r="C1692" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1692" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+    </row>
+    <row r="1693">
+      <c r="B1693" t="inlineStr">
+        <is>
+          <t>Didier Drogba</t>
+        </is>
+      </c>
+      <c r="C1693" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1693" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+    </row>
+    <row r="1694">
+      <c r="B1694" t="inlineStr">
+        <is>
+          <t>Wayne Rooney</t>
+        </is>
+      </c>
+      <c r="C1694" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="D1694" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+    </row>
+    <row r="1695">
+      <c r="B1695" t="inlineStr">
+        <is>
+          <t>Carlos Tevez</t>
+        </is>
+      </c>
+      <c r="C1695" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="D1695" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+    </row>
+    <row r="1696">
+      <c r="B1696" t="inlineStr">
+        <is>
+          <t>Mark Schwarzer</t>
+        </is>
+      </c>
+      <c r="C1696" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="D1696" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+    </row>
+    <row r="1697">
+      <c r="B1697" t="inlineStr">
+        <is>
+          <t>Nemanja Vidic</t>
+        </is>
+      </c>
+      <c r="C1697" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="D1697" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+    </row>
+    <row r="1698">
+      <c r="B1698" t="inlineStr">
+        <is>
+          <t>Joleon Lescott</t>
+        </is>
+      </c>
+      <c r="C1698" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="D1698" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+    </row>
+    <row r="1699">
+      <c r="B1699" t="inlineStr">
+        <is>
+          <t>Jamie Carragher</t>
+        </is>
+      </c>
+      <c r="C1699" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1699" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+    </row>
+    <row r="1700">
+      <c r="B1700" t="inlineStr">
+        <is>
+          <t>Jose Bosingwa</t>
+        </is>
+      </c>
+      <c r="C1700" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1700" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+    </row>
+    <row r="1701">
+      <c r="B1701" t="inlineStr">
+        <is>
+          <t>Frank Lampard</t>
+        </is>
+      </c>
+      <c r="C1701" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1701" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+    </row>
+    <row r="1702">
+      <c r="B1702" t="inlineStr">
+        <is>
+          <t>Steven Gerrard</t>
+        </is>
+      </c>
+      <c r="C1702" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1702" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+    </row>
+    <row r="1703">
+      <c r="B1703" t="inlineStr">
+        <is>
+          <t>Cristiano Ronaldo</t>
+        </is>
+      </c>
+      <c r="C1703" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="D1703" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+    </row>
+    <row r="1704">
+      <c r="B1704" t="inlineStr">
+        <is>
+          <t>Dirk Kuyt</t>
+        </is>
+      </c>
+      <c r="C1704" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1704" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+    </row>
+    <row r="1705">
+      <c r="B1705" t="inlineStr">
+        <is>
+          <t>Gareth Barry</t>
+        </is>
+      </c>
+      <c r="C1705" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="D1705" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+    </row>
+    <row r="1706">
+      <c r="B1706" t="inlineStr">
+        <is>
+          <t>Nicolas Anelka</t>
+        </is>
+      </c>
+      <c r="C1706" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1706" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+    </row>
+    <row r="1707">
+      <c r="B1707" t="inlineStr">
+        <is>
+          <t>David James</t>
+        </is>
+      </c>
+      <c r="C1707" t="inlineStr">
+        <is>
+          <t>Portsmouth</t>
+        </is>
+      </c>
+      <c r="D1707" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+    </row>
+    <row r="1708">
+      <c r="B1708" t="inlineStr">
+        <is>
+          <t>Joleon Lescott</t>
+        </is>
+      </c>
+      <c r="C1708" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="D1708" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+    </row>
+    <row r="1709">
+      <c r="B1709" t="inlineStr">
+        <is>
+          <t>Rio Ferdinand</t>
+        </is>
+      </c>
+      <c r="C1709" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="D1709" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+    </row>
+    <row r="1710">
+      <c r="B1710" t="inlineStr">
+        <is>
+          <t>Martin Laursen</t>
+        </is>
+      </c>
+      <c r="C1710" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="D1710" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+    </row>
+    <row r="1711">
+      <c r="B1711" t="inlineStr">
+        <is>
+          <t>Cristiano Ronaldo</t>
+        </is>
+      </c>
+      <c r="C1711" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="D1711" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+    </row>
+    <row r="1712">
+      <c r="B1712" t="inlineStr">
+        <is>
+          <t>Cesc Fabregas</t>
+        </is>
+      </c>
+      <c r="C1712" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D1712" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+    </row>
+    <row r="1713">
+      <c r="B1713" t="inlineStr">
+        <is>
+          <t>Steven Gerrard</t>
+        </is>
+      </c>
+      <c r="C1713" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1713" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="1714">
+      <c r="B1714" t="inlineStr">
+        <is>
+          <t>Gareth Barry</t>
+        </is>
+      </c>
+      <c r="C1714" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="D1714" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+    </row>
+    <row r="1715">
+      <c r="B1715" t="inlineStr">
+        <is>
+          <t>Emmanuel Adebayor</t>
+        </is>
+      </c>
+      <c r="C1715" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D1715" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="1716">
+      <c r="B1716" t="inlineStr">
+        <is>
+          <t>Fernando Torres</t>
+        </is>
+      </c>
+      <c r="C1716" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1716" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+    </row>
+    <row r="1717">
+      <c r="B1717" t="inlineStr">
+        <is>
+          <t>Roque Santa Cruz</t>
+        </is>
+      </c>
+      <c r="C1717" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="D1717" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+    </row>
+    <row r="1718">
+      <c r="B1718" t="inlineStr">
+        <is>
+          <t>David James</t>
+        </is>
+      </c>
+      <c r="C1718" t="inlineStr">
+        <is>
+          <t>Portsmouth</t>
+        </is>
+      </c>
+      <c r="D1718" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+    </row>
+    <row r="1719">
+      <c r="B1719" t="inlineStr">
+        <is>
+          <t>Matthew Taylor</t>
+        </is>
+      </c>
+      <c r="C1719" t="inlineStr">
+        <is>
+          <t>Portsmouth</t>
+        </is>
+      </c>
+      <c r="D1719" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+    </row>
+    <row r="1720">
+      <c r="B1720" t="inlineStr">
+        <is>
+          <t>Joleon Lescott</t>
+        </is>
+      </c>
+      <c r="C1720" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="D1720" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+    </row>
+    <row r="1721">
+      <c r="B1721" t="inlineStr">
+        <is>
+          <t>Jamie Carragher</t>
+        </is>
+      </c>
+      <c r="C1721" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1721" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+    </row>
+    <row r="1722">
+      <c r="B1722" t="inlineStr">
+        <is>
+          <t>Cristiano Ronaldo</t>
+        </is>
+      </c>
+      <c r="C1722" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="D1722" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+    </row>
+    <row r="1723">
+      <c r="B1723" t="inlineStr">
+        <is>
+          <t>Frank Lampard</t>
+        </is>
+      </c>
+      <c r="C1723" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1723" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+    </row>
+    <row r="1724">
+      <c r="B1724" t="inlineStr">
+        <is>
+          <t>Cesc Fabregas</t>
+        </is>
+      </c>
+      <c r="C1724" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D1724" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+    </row>
+    <row r="1725">
+      <c r="B1725" t="inlineStr">
+        <is>
+          <t>Steven Gerrard</t>
+        </is>
+      </c>
+      <c r="C1725" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1725" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+    </row>
+    <row r="1726">
+      <c r="B1726" t="inlineStr">
+        <is>
+          <t>Mikel Arteta</t>
+        </is>
+      </c>
+      <c r="C1726" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="D1726" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+    </row>
+    <row r="1727">
+      <c r="B1727" t="inlineStr">
+        <is>
+          <t>Wayne Rooney</t>
+        </is>
+      </c>
+      <c r="C1727" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="D1727" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+    </row>
+    <row r="1728">
+      <c r="B1728" t="inlineStr">
+        <is>
+          <t>Didier Drogba</t>
+        </is>
+      </c>
+      <c r="C1728" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1728" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+    </row>
+    <row r="1729">
+      <c r="B1729" t="inlineStr">
+        <is>
+          <t>Edwin van der Sar</t>
+        </is>
+      </c>
+      <c r="C1729" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="D1729" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+    </row>
+    <row r="1730">
+      <c r="B1730" t="inlineStr">
+        <is>
+          <t>John Terry</t>
+        </is>
+      </c>
+      <c r="C1730" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1730" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+    </row>
+    <row r="1731">
+      <c r="B1731" t="inlineStr">
+        <is>
+          <t>William Gallas</t>
+        </is>
+      </c>
+      <c r="C1731" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1731" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+    </row>
+    <row r="1732">
+      <c r="B1732" t="inlineStr">
+        <is>
+          <t>Steven Finnan</t>
+        </is>
+      </c>
+      <c r="C1732" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1732" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+    </row>
+    <row r="1733">
+      <c r="B1733" t="inlineStr">
+        <is>
+          <t>Rio Ferdinand</t>
+        </is>
+      </c>
+      <c r="C1733" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="D1733" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+    </row>
+    <row r="1734">
+      <c r="B1734" t="inlineStr">
+        <is>
+          <t>Frank Lampard</t>
+        </is>
+      </c>
+      <c r="C1734" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1734" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+    </row>
+    <row r="1735">
+      <c r="B1735" t="inlineStr">
+        <is>
+          <t>Steven Gerrard</t>
+        </is>
+      </c>
+      <c r="C1735" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1735" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+    </row>
+    <row r="1736">
+      <c r="B1736" t="inlineStr">
+        <is>
+          <t>Morten Gamst Pedersen</t>
+        </is>
+      </c>
+      <c r="C1736" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="D1736" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+    </row>
+    <row r="1737">
+      <c r="B1737" t="inlineStr">
+        <is>
+          <t>Thierry Henry</t>
+        </is>
+      </c>
+      <c r="C1737" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D1737" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+    </row>
+    <row r="1738">
+      <c r="B1738" t="inlineStr">
+        <is>
+          <t>Ruud van Nistelrooy</t>
+        </is>
+      </c>
+      <c r="C1738" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="D1738" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+    </row>
+    <row r="1739">
+      <c r="B1739" t="inlineStr">
+        <is>
+          <t>Darren Bent</t>
+        </is>
+      </c>
+      <c r="C1739" t="inlineStr">
+        <is>
+          <t>Charlton</t>
+        </is>
+      </c>
+      <c r="D1739" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+    </row>
+    <row r="1740">
+      <c r="B1740" t="inlineStr">
+        <is>
+          <t>Petr Cech</t>
+        </is>
+      </c>
+      <c r="C1740" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1740" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+    </row>
+    <row r="1741">
+      <c r="B1741" t="inlineStr">
+        <is>
+          <t>John Terry</t>
+        </is>
+      </c>
+      <c r="C1741" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1741" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+    </row>
+    <row r="1742">
+      <c r="B1742" t="inlineStr">
+        <is>
+          <t>John Arne Riise</t>
+        </is>
+      </c>
+      <c r="C1742" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1742" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+    </row>
+    <row r="1743">
+      <c r="B1743" t="inlineStr">
+        <is>
+          <t>William Gallas</t>
+        </is>
+      </c>
+      <c r="C1743" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1743" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+    </row>
+    <row r="1744">
+      <c r="B1744" t="inlineStr">
+        <is>
+          <t>Frank Lampard</t>
+        </is>
+      </c>
+      <c r="C1744" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1744" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+    </row>
+    <row r="1745">
+      <c r="B1745" t="inlineStr">
+        <is>
+          <t>Robert Pires</t>
+        </is>
+      </c>
+      <c r="C1745" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D1745" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+    </row>
+    <row r="1746">
+      <c r="B1746" t="inlineStr">
+        <is>
+          <t>Paul Scholes</t>
+        </is>
+      </c>
+      <c r="C1746" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="D1746" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+    </row>
+    <row r="1747">
+      <c r="B1747" t="inlineStr">
+        <is>
+          <t>Damien Duff</t>
+        </is>
+      </c>
+      <c r="C1747" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1747" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+    </row>
+    <row r="1748">
+      <c r="B1748" t="inlineStr">
+        <is>
+          <t>Stewart Downing</t>
+        </is>
+      </c>
+      <c r="C1748" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="D1748" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+    </row>
+    <row r="1749">
+      <c r="B1749" t="inlineStr">
+        <is>
+          <t>Thierry Henry</t>
+        </is>
+      </c>
+      <c r="C1749" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D1749" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+    </row>
+    <row r="1750">
+      <c r="B1750" t="inlineStr">
+        <is>
+          <t>Andrew Johnson</t>
+        </is>
+      </c>
+      <c r="C1750" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="D1750" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+    </row>
+    <row r="1751">
+      <c r="B1751" t="inlineStr">
+        <is>
+          <t>Edwin van der Sar</t>
+        </is>
+      </c>
+      <c r="C1751" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="D1751" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+    </row>
+    <row r="1752">
+      <c r="B1752" t="inlineStr">
+        <is>
+          <t>Sami Hyypia</t>
+        </is>
+      </c>
+      <c r="C1752" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1752" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+    </row>
+    <row r="1753">
+      <c r="B1753" t="inlineStr">
+        <is>
+          <t>John Terry</t>
+        </is>
+      </c>
+      <c r="C1753" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1753" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+    </row>
+    <row r="1754">
+      <c r="B1754" t="inlineStr">
+        <is>
+          <t>Wayne Bridge</t>
+        </is>
+      </c>
+      <c r="C1754" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1754" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+    </row>
+    <row r="1755">
+      <c r="B1755" t="inlineStr">
+        <is>
+          <t>Robert Pires</t>
+        </is>
+      </c>
+      <c r="C1755" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D1755" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+    </row>
+    <row r="1756">
+      <c r="B1756" t="inlineStr">
+        <is>
+          <t>Frank Lampard</t>
+        </is>
+      </c>
+      <c r="C1756" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1756" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+    </row>
+    <row r="1757">
+      <c r="B1757" t="inlineStr">
+        <is>
+          <t>Steed Malbranque</t>
+        </is>
+      </c>
+      <c r="C1757" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="D1757" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+    </row>
+    <row r="1758">
+      <c r="B1758" t="inlineStr">
+        <is>
+          <t>Ryan Giggs</t>
+        </is>
+      </c>
+      <c r="C1758" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="D1758" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+    </row>
+    <row r="1759">
+      <c r="B1759" t="inlineStr">
+        <is>
+          <t>Thierry Henry</t>
+        </is>
+      </c>
+      <c r="C1759" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D1759" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+    </row>
+    <row r="1760">
+      <c r="B1760" t="inlineStr">
+        <is>
+          <t>Alan Shearer</t>
+        </is>
+      </c>
+      <c r="C1760" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="D1760" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+    </row>
+    <row r="1761">
+      <c r="B1761" t="inlineStr">
+        <is>
+          <t>Louis Saha</t>
+        </is>
+      </c>
+      <c r="C1761" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="D1761" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+    </row>
+    <row r="1762">
+      <c r="B1762" t="inlineStr">
+        <is>
+          <t>Brad Friedel</t>
+        </is>
+      </c>
+      <c r="C1762" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="D1762" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+    </row>
+    <row r="1763">
+      <c r="B1763" t="inlineStr">
+        <is>
+          <t>Sami Hyypia</t>
+        </is>
+      </c>
+      <c r="C1763" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1763" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+    </row>
+    <row r="1764">
+      <c r="B1764" t="inlineStr">
+        <is>
+          <t>Mikael Silvestre</t>
+        </is>
+      </c>
+      <c r="C1764" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="D1764" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+    </row>
+    <row r="1765">
+      <c r="B1765" t="inlineStr">
+        <is>
+          <t>William Gallas</t>
+        </is>
+      </c>
+      <c r="C1765" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1765" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+    </row>
+    <row r="1766">
+      <c r="B1766" t="inlineStr">
+        <is>
+          <t>Paul Scholes</t>
+        </is>
+      </c>
+      <c r="C1766" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="D1766" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+    </row>
+    <row r="1767">
+      <c r="B1767" t="inlineStr">
+        <is>
+          <t>Harry Kewell</t>
+        </is>
+      </c>
+      <c r="C1767" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="D1767" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+    </row>
+    <row r="1768">
+      <c r="B1768" t="inlineStr">
+        <is>
+          <t>Ryan Giggs</t>
+        </is>
+      </c>
+      <c r="C1768" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="D1768" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+    </row>
+    <row r="1769">
+      <c r="B1769" t="inlineStr">
+        <is>
+          <t>Frank Lampard</t>
+        </is>
+      </c>
+      <c r="C1769" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1769" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+    </row>
+    <row r="1770">
+      <c r="B1770" t="inlineStr">
+        <is>
+          <t>Thierry Henry</t>
+        </is>
+      </c>
+      <c r="C1770" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D1770" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+    </row>
+    <row r="1771">
+      <c r="B1771" t="inlineStr">
+        <is>
+          <t>James Beattie</t>
+        </is>
+      </c>
+      <c r="C1771" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="D1771" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+    </row>
+    <row r="1772">
+      <c r="B1772" t="inlineStr">
+        <is>
+          <t>Ruud van Nistelrooy</t>
+        </is>
+      </c>
+      <c r="C1772" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="D1772" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+    </row>
+    <row r="1773">
+      <c r="B1773" t="inlineStr">
+        <is>
+          <t>Brad Friedel</t>
+        </is>
+      </c>
+      <c r="C1773" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="D1773" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+    </row>
+    <row r="1774">
+      <c r="B1774" t="inlineStr">
+        <is>
+          <t>Andrew Robertson</t>
+        </is>
+      </c>
+      <c r="C1774" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1774" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+    </row>
+    <row r="1775">
+      <c r="B1775" t="inlineStr">
+        <is>
+          <t>Trent Alexander-Arnold</t>
+        </is>
+      </c>
+      <c r="C1775" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1775" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+    </row>
+    <row r="1776">
+      <c r="B1776" t="inlineStr">
+        <is>
+          <t>Virgil van Dijk</t>
+        </is>
+      </c>
+      <c r="C1776" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1776" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+    </row>
+    <row r="1777">
+      <c r="B1777" t="inlineStr">
+        <is>
+          <t>Mohamed Salah</t>
+        </is>
+      </c>
+      <c r="C1777" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1777" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+    </row>
+    <row r="1778">
+      <c r="B1778" t="inlineStr">
+        <is>
+          <t>Frank Lampard</t>
+        </is>
+      </c>
+      <c r="C1778" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1778" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+    </row>
+    <row r="1779">
+      <c r="B1779" t="inlineStr">
+        <is>
+          <t>Cristiano Ronaldo</t>
+        </is>
+      </c>
+      <c r="C1779" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="D1779" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+    </row>
+    <row r="1780">
+      <c r="B1780" t="inlineStr">
+        <is>
+          <t>Alexis Sanchez</t>
+        </is>
+      </c>
+      <c r="C1780" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D1780" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+    </row>
+    <row r="1781">
+      <c r="B1781" t="inlineStr">
+        <is>
+          <t>Luis Suarez</t>
+        </is>
+      </c>
+      <c r="C1781" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1781" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+    </row>
+    <row r="1782">
+      <c r="B1782" t="inlineStr">
+        <is>
+          <t>Erling Haaland</t>
+        </is>
+      </c>
+      <c r="C1782" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="D1782" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+    </row>
+    <row r="1783">
+      <c r="B1783" t="inlineStr">
+        <is>
+          <t>Thierry Henry</t>
+        </is>
+      </c>
+      <c r="C1783" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D1783" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+    </row>
+    <row r="1784">
+      <c r="A1784" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+      <c r="B1784" t="inlineStr">
+        <is>
+          <t>Jordan Pickford</t>
+        </is>
+      </c>
+      <c r="C1784" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="D1784" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+    </row>
+    <row r="1785">
+      <c r="A1785" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+      <c r="B1785" t="inlineStr">
+        <is>
+          <t>Josko Gvardiol</t>
+        </is>
+      </c>
+      <c r="C1785" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="D1785" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+    </row>
+    <row r="1786">
+      <c r="A1786" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+      <c r="B1786" t="inlineStr">
+        <is>
+          <t>Trent Alexander-Arnold</t>
+        </is>
+      </c>
+      <c r="C1786" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1786" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+    </row>
+    <row r="1787">
+      <c r="A1787" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+      <c r="B1787" t="inlineStr">
+        <is>
+          <t>Nikola Milenkovic</t>
+        </is>
+      </c>
+      <c r="C1787" t="inlineStr">
+        <is>
+          <t>Notts Forest</t>
+        </is>
+      </c>
+      <c r="D1787" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+    </row>
+    <row r="1788">
+      <c r="A1788" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+      <c r="B1788" t="inlineStr">
+        <is>
+          <t>Mohamed Salah</t>
+        </is>
+      </c>
+      <c r="C1788" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1788" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+    </row>
+    <row r="1789">
+      <c r="A1789" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+      <c r="B1789" t="inlineStr">
+        <is>
+          <t>Bryan Mbeumo</t>
+        </is>
+      </c>
+      <c r="C1789" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="D1789" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+    </row>
+    <row r="1790">
+      <c r="A1790" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+      <c r="B1790" t="inlineStr">
+        <is>
+          <t>Cole Palmer</t>
+        </is>
+      </c>
+      <c r="C1790" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1790" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+    </row>
+    <row r="1791">
+      <c r="A1791" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+      <c r="B1791" t="inlineStr">
+        <is>
+          <t>Jarrod Bowen</t>
+        </is>
+      </c>
+      <c r="C1791" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="D1791" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+    </row>
+    <row r="1792">
+      <c r="A1792" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+      <c r="B1792" t="inlineStr">
+        <is>
+          <t>Alexander Isak</t>
+        </is>
+      </c>
+      <c r="C1792" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="D1792" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+    </row>
+    <row r="1793">
+      <c r="A1793" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+      <c r="B1793" t="inlineStr">
+        <is>
+          <t>Chris Wood</t>
+        </is>
+      </c>
+      <c r="C1793" t="inlineStr">
+        <is>
+          <t>Notts Forest</t>
+        </is>
+      </c>
+      <c r="D1793" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="1794">
+      <c r="A1794" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+      <c r="B1794" t="inlineStr">
+        <is>
+          <t>Ollie Watkins</t>
+        </is>
+      </c>
+      <c r="C1794" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="D1794" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+    </row>
+    <row r="1795">
+      <c r="A1795" t="inlineStr">
+        <is>
+          <t>2023/24</t>
+        </is>
+      </c>
+      <c r="B1795" t="inlineStr">
+        <is>
+          <t>Jordan Pickford</t>
+        </is>
+      </c>
+      <c r="C1795" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="D1795" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+    </row>
+    <row r="1796">
+      <c r="A1796" t="inlineStr">
+        <is>
+          <t>2023/24</t>
+        </is>
+      </c>
+      <c r="B1796" t="inlineStr">
+        <is>
+          <t>Ben White</t>
+        </is>
+      </c>
+      <c r="C1796" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D1796" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+    </row>
+    <row r="1797">
+      <c r="A1797" t="inlineStr">
+        <is>
+          <t>2023/24</t>
+        </is>
+      </c>
+      <c r="B1797" t="inlineStr">
+        <is>
+          <t>William Saliba</t>
+        </is>
+      </c>
+      <c r="C1797" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D1797" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+    </row>
+    <row r="1798">
+      <c r="A1798" t="inlineStr">
+        <is>
+          <t>2023/24</t>
+        </is>
+      </c>
+      <c r="B1798" t="inlineStr">
+        <is>
+          <t>Gabriel Magalhaes</t>
+        </is>
+      </c>
+      <c r="C1798" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D1798" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+    </row>
+    <row r="1799">
+      <c r="A1799" t="inlineStr">
+        <is>
+          <t>2023/24</t>
+        </is>
+      </c>
+      <c r="B1799" t="inlineStr">
+        <is>
+          <t>Cole Palmer</t>
+        </is>
+      </c>
+      <c r="C1799" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1799" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+    </row>
+    <row r="1800">
+      <c r="A1800" t="inlineStr">
+        <is>
+          <t>2023/24</t>
+        </is>
+      </c>
+      <c r="B1800" t="inlineStr">
+        <is>
+          <t>Phil Foden</t>
+        </is>
+      </c>
+      <c r="C1800" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="D1800" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+    </row>
+    <row r="1801">
+      <c r="A1801" t="inlineStr">
+        <is>
+          <t>2023/24</t>
+        </is>
+      </c>
+      <c r="B1801" t="inlineStr">
+        <is>
+          <t>Bukayo Saka</t>
+        </is>
+      </c>
+      <c r="C1801" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D1801" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+    </row>
+    <row r="1802">
+      <c r="A1802" t="inlineStr">
+        <is>
+          <t>2023/24</t>
+        </is>
+      </c>
+      <c r="B1802" t="inlineStr">
+        <is>
+          <t>Heung Min Son</t>
+        </is>
+      </c>
+      <c r="C1802" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="D1802" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+    </row>
+    <row r="1803">
+      <c r="A1803" t="inlineStr">
+        <is>
+          <t>2023/24</t>
+        </is>
+      </c>
+      <c r="B1803" t="inlineStr">
+        <is>
+          <t>Mohamed Salah</t>
+        </is>
+      </c>
+      <c r="C1803" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1803" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+    </row>
+    <row r="1804">
+      <c r="A1804" t="inlineStr">
+        <is>
+          <t>2023/24</t>
+        </is>
+      </c>
+      <c r="B1804" t="inlineStr">
+        <is>
+          <t>Ollie Watkins</t>
+        </is>
+      </c>
+      <c r="C1804" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="D1804" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+    </row>
+    <row r="1805">
+      <c r="A1805" t="inlineStr">
+        <is>
+          <t>2023/24</t>
+        </is>
+      </c>
+      <c r="B1805" t="inlineStr">
+        <is>
+          <t>Erling Haaland</t>
+        </is>
+      </c>
+      <c r="C1805" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="D1805" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+    </row>
+    <row r="1806">
+      <c r="B1806" t="inlineStr">
+        <is>
+          <t>David Raya</t>
+        </is>
+      </c>
+      <c r="C1806" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="D1806" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+    </row>
+    <row r="1807">
+      <c r="B1807" t="inlineStr">
+        <is>
+          <t>Kieran Trippier</t>
+        </is>
+      </c>
+      <c r="C1807" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="D1807" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+    </row>
+    <row r="1808">
+      <c r="B1808" t="inlineStr">
+        <is>
+          <t>Ben White</t>
+        </is>
+      </c>
+      <c r="C1808" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D1808" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+    </row>
+    <row r="1809">
+      <c r="B1809" t="inlineStr">
+        <is>
+          <t>Trent Alexander-Arnold</t>
+        </is>
+      </c>
+      <c r="C1809" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1809" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+    </row>
+    <row r="1810">
+      <c r="B1810" t="inlineStr">
+        <is>
+          <t>Mohamed Salah</t>
+        </is>
+      </c>
+      <c r="C1810" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1810" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+    </row>
+    <row r="1811">
+      <c r="B1811" t="inlineStr">
+        <is>
+          <t>Martin Odegaard</t>
+        </is>
+      </c>
+      <c r="C1811" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D1811" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+    </row>
+    <row r="1812">
+      <c r="B1812" t="inlineStr">
+        <is>
+          <t>Marcus Rashford</t>
+        </is>
+      </c>
+      <c r="C1812" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="D1812" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+    </row>
+    <row r="1813">
+      <c r="B1813" t="inlineStr">
+        <is>
+          <t>Bukayo Saka</t>
+        </is>
+      </c>
+      <c r="C1813" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D1813" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+    </row>
+    <row r="1814">
+      <c r="B1814" t="inlineStr">
+        <is>
+          <t>Gabriel Martinelli</t>
+        </is>
+      </c>
+      <c r="C1814" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D1814" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+    </row>
+    <row r="1815">
+      <c r="B1815" t="inlineStr">
+        <is>
+          <t>Erling Haaland</t>
+        </is>
+      </c>
+      <c r="C1815" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="D1815" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+    </row>
+    <row r="1816">
+      <c r="B1816" t="inlineStr">
+        <is>
+          <t>Harry Kane</t>
+        </is>
+      </c>
+      <c r="C1816" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="D1816" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+    </row>
+    <row r="1817">
+      <c r="B1817" t="inlineStr">
+        <is>
+          <t>Alisson Becker</t>
+        </is>
+      </c>
+      <c r="C1817" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1817" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+    </row>
+    <row r="1818">
+      <c r="B1818" t="inlineStr">
+        <is>
+          <t>Trent Alexander-Arnold</t>
+        </is>
+      </c>
+      <c r="C1818" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1818" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+    </row>
+    <row r="1819">
+      <c r="B1819" t="inlineStr">
+        <is>
+          <t>Joao Cancelo</t>
+        </is>
+      </c>
+      <c r="C1819" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="D1819" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+    </row>
+    <row r="1820">
+      <c r="B1820" t="inlineStr">
+        <is>
+          <t>Andrew Robertson</t>
+        </is>
+      </c>
+      <c r="C1820" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1820" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+    </row>
+    <row r="1821">
+      <c r="B1821" t="inlineStr">
+        <is>
+          <t>Virgil van Dijk</t>
+        </is>
+      </c>
+      <c r="C1821" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1821" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+    </row>
+    <row r="1822">
+      <c r="B1822" t="inlineStr">
+        <is>
+          <t>Mohamed Salah</t>
+        </is>
+      </c>
+      <c r="C1822" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1822" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+    </row>
+    <row r="1823">
+      <c r="B1823" t="inlineStr">
+        <is>
+          <t>Heung Min Son</t>
+        </is>
+      </c>
+      <c r="C1823" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="D1823" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+    </row>
+    <row r="1824">
+      <c r="B1824" t="inlineStr">
+        <is>
+          <t>Jarrod Bowen</t>
+        </is>
+      </c>
+      <c r="C1824" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="D1824" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+    </row>
+    <row r="1825">
+      <c r="B1825" t="inlineStr">
+        <is>
+          <t>Kevin De Bruyne</t>
+        </is>
+      </c>
+      <c r="C1825" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="D1825" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+    </row>
+    <row r="1826">
+      <c r="B1826" t="inlineStr">
+        <is>
+          <t>Sadio Mane</t>
+        </is>
+      </c>
+      <c r="C1826" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1826" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+    </row>
+    <row r="1827">
+      <c r="B1827" t="inlineStr">
+        <is>
+          <t>Harry Kane</t>
+        </is>
+      </c>
+      <c r="C1827" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="D1827" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+    </row>
+    <row r="1828">
+      <c r="B1828" t="inlineStr">
+        <is>
+          <t>Emiliano Martinez</t>
+        </is>
+      </c>
+      <c r="C1828" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="D1828" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+    </row>
+    <row r="1829">
+      <c r="B1829" t="inlineStr">
+        <is>
+          <t>Stuart Dallas</t>
+        </is>
+      </c>
+      <c r="C1829" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="D1829" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+    </row>
+    <row r="1830">
+      <c r="B1830" t="inlineStr">
+        <is>
+          <t>Andrew Robertson</t>
+        </is>
+      </c>
+      <c r="C1830" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1830" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+    </row>
+    <row r="1831">
+      <c r="B1831" t="inlineStr">
+        <is>
+          <t>Trent Alexander-Arnold</t>
+        </is>
+      </c>
+      <c r="C1831" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1831" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+    </row>
+    <row r="1832">
+      <c r="B1832" t="inlineStr">
+        <is>
+          <t>Bruno Fernandes</t>
+        </is>
+      </c>
+      <c r="C1832" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="D1832" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+    </row>
+    <row r="1833">
+      <c r="B1833" t="inlineStr">
+        <is>
+          <t>Mohamed Salah</t>
+        </is>
+      </c>
+      <c r="C1833" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1833" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+    </row>
+    <row r="1834">
+      <c r="B1834" t="inlineStr">
+        <is>
+          <t>Heung Min Son</t>
+        </is>
+      </c>
+      <c r="C1834" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="D1834" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+    </row>
+    <row r="1835">
+      <c r="B1835" t="inlineStr">
+        <is>
+          <t>Sadio Mane</t>
+        </is>
+      </c>
+      <c r="C1835" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1835" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+    </row>
+    <row r="1836">
+      <c r="B1836" t="inlineStr">
+        <is>
+          <t>Harry Kane</t>
+        </is>
+      </c>
+      <c r="C1836" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="D1836" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+    </row>
+    <row r="1837">
+      <c r="B1837" t="inlineStr">
+        <is>
+          <t>Patrick Bamford</t>
+        </is>
+      </c>
+      <c r="C1837" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="D1837" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+    </row>
+    <row r="1838">
+      <c r="B1838" t="inlineStr">
+        <is>
+          <t>Jamie Vardy</t>
+        </is>
+      </c>
+      <c r="C1838" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="D1838" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+    </row>
+    <row r="1839">
+      <c r="B1839" t="inlineStr">
+        <is>
+          <t>Nick Pope</t>
+        </is>
+      </c>
+      <c r="C1839" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="D1839" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+    </row>
+    <row r="1840">
+      <c r="B1840" t="inlineStr">
+        <is>
+          <t>Trent Alexander-Arnold</t>
+        </is>
+      </c>
+      <c r="C1840" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1840" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+    </row>
+    <row r="1841">
+      <c r="B1841" t="inlineStr">
+        <is>
+          <t>Andrew Robertson</t>
+        </is>
+      </c>
+      <c r="C1841" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1841" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+    </row>
+    <row r="1842">
+      <c r="B1842" t="inlineStr">
+        <is>
+          <t>Virgil van Dijk</t>
+        </is>
+      </c>
+      <c r="C1842" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1842" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+    </row>
+    <row r="1843">
+      <c r="B1843" t="inlineStr">
+        <is>
+          <t>Kevin De Bruyne</t>
+        </is>
+      </c>
+      <c r="C1843" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="D1843" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+    </row>
+    <row r="1844">
+      <c r="B1844" t="inlineStr">
+        <is>
+          <t>Mohamed Salah</t>
+        </is>
+      </c>
+      <c r="C1844" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1844" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+    </row>
+    <row r="1845">
+      <c r="B1845" t="inlineStr">
+        <is>
+          <t>Sadio Mane</t>
+        </is>
+      </c>
+      <c r="C1845" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1845" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+    </row>
+    <row r="1846">
+      <c r="B1846" t="inlineStr">
+        <is>
+          <t>Raheem Sterling</t>
+        </is>
+      </c>
+      <c r="C1846" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="D1846" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1847">
+      <c r="B1847" t="inlineStr">
+        <is>
+          <t>Anthony Martial</t>
+        </is>
+      </c>
+      <c r="C1847" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="D1847" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="1848">
+      <c r="B1848" t="inlineStr">
+        <is>
+          <t>Jamie Vardy</t>
+        </is>
+      </c>
+      <c r="C1848" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="D1848" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+    </row>
+    <row r="1849">
+      <c r="B1849" t="inlineStr">
+        <is>
+          <t>Pierre Aubameyang</t>
+        </is>
+      </c>
+      <c r="C1849" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D1849" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+    </row>
+    <row r="1850">
+      <c r="B1850" t="inlineStr">
+        <is>
+          <t>Alisson Becker</t>
+        </is>
+      </c>
+      <c r="C1850" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1850" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+    </row>
+    <row r="1851">
+      <c r="B1851" t="inlineStr">
+        <is>
+          <t>Andrew Robertson</t>
+        </is>
+      </c>
+      <c r="C1851" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1851" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+    </row>
+    <row r="1852">
+      <c r="B1852" t="inlineStr">
+        <is>
+          <t>Virgil van Dijk</t>
+        </is>
+      </c>
+      <c r="C1852" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1852" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+    </row>
+    <row r="1853">
+      <c r="B1853" t="inlineStr">
+        <is>
+          <t>Trent Alexander-Arnold</t>
+        </is>
+      </c>
+      <c r="C1853" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1853" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+    </row>
+    <row r="1854">
+      <c r="B1854" t="inlineStr">
+        <is>
+          <t>Mohamed Salah</t>
+        </is>
+      </c>
+      <c r="C1854" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1854" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+    </row>
+    <row r="1855">
+      <c r="B1855" t="inlineStr">
+        <is>
+          <t>Eden Hazard</t>
+        </is>
+      </c>
+      <c r="C1855" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1855" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+    </row>
+    <row r="1856">
+      <c r="B1856" t="inlineStr">
+        <is>
+          <t>Raheem Sterling</t>
+        </is>
+      </c>
+      <c r="C1856" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="D1856" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+    </row>
+    <row r="1857">
+      <c r="B1857" t="inlineStr">
+        <is>
+          <t>Sadio Mane</t>
+        </is>
+      </c>
+      <c r="C1857" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1857" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+    </row>
+    <row r="1858">
+      <c r="B1858" t="inlineStr">
+        <is>
+          <t>Gylfi Sigurdsson</t>
+        </is>
+      </c>
+      <c r="C1858" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="D1858" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+    </row>
+    <row r="1859">
+      <c r="B1859" t="inlineStr">
+        <is>
+          <t>Pierre Aubameyang</t>
+        </is>
+      </c>
+      <c r="C1859" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D1859" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+    </row>
+    <row r="1860">
+      <c r="B1860" t="inlineStr">
+        <is>
+          <t>Sergio Aguero</t>
+        </is>
+      </c>
+      <c r="C1860" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="D1860" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+    </row>
+    <row r="1861">
+      <c r="B1861" t="inlineStr">
+        <is>
+          <t>David De Gea</t>
+        </is>
+      </c>
+      <c r="C1861" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="D1861" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+    </row>
+    <row r="1862">
+      <c r="B1862" t="inlineStr">
+        <is>
+          <t>Cesar Azpilicueta</t>
+        </is>
+      </c>
+      <c r="C1862" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1862" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+    </row>
+    <row r="1863">
+      <c r="B1863" t="inlineStr">
+        <is>
+          <t>Marcos Alonso</t>
+        </is>
+      </c>
+      <c r="C1863" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1863" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+    </row>
+    <row r="1864">
+      <c r="B1864" t="inlineStr">
+        <is>
+          <t>Nicolas Otamendi</t>
+        </is>
+      </c>
+      <c r="C1864" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="D1864" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+    </row>
+    <row r="1865">
+      <c r="B1865" t="inlineStr">
+        <is>
+          <t>Mohamed Salah</t>
+        </is>
+      </c>
+      <c r="C1865" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1865" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+    </row>
+    <row r="1866">
+      <c r="B1866" t="inlineStr">
+        <is>
+          <t>Raheem Sterling</t>
+        </is>
+      </c>
+      <c r="C1866" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="D1866" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+    </row>
+    <row r="1867">
+      <c r="B1867" t="inlineStr">
+        <is>
+          <t>Kevin De Bruyne</t>
+        </is>
+      </c>
+      <c r="C1867" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="D1867" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+    </row>
+    <row r="1868">
+      <c r="B1868" t="inlineStr">
+        <is>
+          <t>Christian Eriksen</t>
+        </is>
+      </c>
+      <c r="C1868" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="D1868" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+    </row>
+    <row r="1869">
+      <c r="B1869" t="inlineStr">
+        <is>
+          <t>Riyad Mahrez</t>
+        </is>
+      </c>
+      <c r="C1869" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="D1869" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+    </row>
+    <row r="1870">
+      <c r="B1870" t="inlineStr">
+        <is>
+          <t>Harry Kane</t>
+        </is>
+      </c>
+      <c r="C1870" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="D1870" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+    </row>
+    <row r="1871">
+      <c r="B1871" t="inlineStr">
+        <is>
+          <t>Jamie Vardy</t>
+        </is>
+      </c>
+      <c r="C1871" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="D1871" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+    </row>
+    <row r="1872">
+      <c r="B1872" t="inlineStr">
+        <is>
+          <t>Tom Heaton</t>
+        </is>
+      </c>
+      <c r="C1872" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="D1872" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+    </row>
+    <row r="1873">
+      <c r="B1873" t="inlineStr">
+        <is>
+          <t>Gary Cahill</t>
+        </is>
+      </c>
+      <c r="C1873" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1873" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+    </row>
+    <row r="1874">
+      <c r="B1874" t="inlineStr">
+        <is>
+          <t>Marcos Alonso</t>
+        </is>
+      </c>
+      <c r="C1874" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1874" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+    </row>
+    <row r="1875">
+      <c r="B1875" t="inlineStr">
+        <is>
+          <t>Cesar Azpilicueta</t>
+        </is>
+      </c>
+      <c r="C1875" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1875" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+    </row>
+    <row r="1876">
+      <c r="B1876" t="inlineStr">
+        <is>
+          <t>Alexis Sanchez</t>
+        </is>
+      </c>
+      <c r="C1876" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D1876" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+    </row>
+    <row r="1877">
+      <c r="B1877" t="inlineStr">
+        <is>
+          <t>Dele Alli</t>
+        </is>
+      </c>
+      <c r="C1877" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="D1877" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+    </row>
+    <row r="1878">
+      <c r="B1878" t="inlineStr">
+        <is>
+          <t>Eden Hazard</t>
+        </is>
+      </c>
+      <c r="C1878" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1878" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+    </row>
+    <row r="1879">
+      <c r="B1879" t="inlineStr">
+        <is>
+          <t>Christian Eriksen</t>
+        </is>
+      </c>
+      <c r="C1879" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="D1879" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+    </row>
+    <row r="1880">
+      <c r="B1880" t="inlineStr">
+        <is>
+          <t>Kevin De Bruyne</t>
+        </is>
+      </c>
+      <c r="C1880" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="D1880" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+    </row>
+    <row r="1881">
+      <c r="B1881" t="inlineStr">
+        <is>
+          <t>Harry Kane</t>
+        </is>
+      </c>
+      <c r="C1881" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="D1881" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+    </row>
+    <row r="1882">
+      <c r="B1882" t="inlineStr">
+        <is>
+          <t>Romelu Lukaku</t>
+        </is>
+      </c>
+      <c r="C1882" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="D1882" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+    </row>
+    <row r="1883">
+      <c r="B1883" t="inlineStr">
+        <is>
+          <t>Petr Cech</t>
+        </is>
+      </c>
+      <c r="C1883" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D1883" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+    </row>
+    <row r="1884">
+      <c r="B1884" t="inlineStr">
+        <is>
+          <t>Hector Bellerin</t>
+        </is>
+      </c>
+      <c r="C1884" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D1884" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+    </row>
+    <row r="1885">
+      <c r="B1885" t="inlineStr">
+        <is>
+          <t>Toby Alderweireld</t>
+        </is>
+      </c>
+      <c r="C1885" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="D1885" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+    </row>
+    <row r="1886">
+      <c r="B1886" t="inlineStr">
+        <is>
+          <t>Laurent Koscielny</t>
+        </is>
+      </c>
+      <c r="C1886" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D1886" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+    </row>
+    <row r="1887">
+      <c r="B1887" t="inlineStr">
+        <is>
+          <t>Riyad Mahrez</t>
+        </is>
+      </c>
+      <c r="C1887" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="D1887" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+    </row>
+    <row r="1888">
+      <c r="B1888" t="inlineStr">
+        <is>
+          <t>Mesut Ozil</t>
+        </is>
+      </c>
+      <c r="C1888" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D1888" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="1889">
+      <c r="B1889" t="inlineStr">
+        <is>
+          <t>Christian Eriksen</t>
+        </is>
+      </c>
+      <c r="C1889" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="D1889" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+    </row>
+    <row r="1890">
+      <c r="B1890" t="inlineStr">
+        <is>
+          <t>Andre Ayew</t>
+        </is>
+      </c>
+      <c r="C1890" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="D1890" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+    </row>
+    <row r="1891">
+      <c r="B1891" t="inlineStr">
+        <is>
+          <t>Jamie Vardy</t>
+        </is>
+      </c>
+      <c r="C1891" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="D1891" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+    </row>
+    <row r="1892">
+      <c r="B1892" t="inlineStr">
+        <is>
+          <t>Harry Kane</t>
+        </is>
+      </c>
+      <c r="C1892" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="D1892" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+    </row>
+    <row r="1893">
+      <c r="B1893" t="inlineStr">
+        <is>
+          <t>Romelu Lukaku</t>
+        </is>
+      </c>
+      <c r="C1893" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="D1893" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+    </row>
+    <row r="1894">
+      <c r="B1894" t="inlineStr">
+        <is>
+          <t>Lukasz Fabianski</t>
+        </is>
+      </c>
+      <c r="C1894" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="D1894" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+    </row>
+    <row r="1895">
+      <c r="B1895" t="inlineStr">
+        <is>
+          <t>Branislav Ivanovic</t>
+        </is>
+      </c>
+      <c r="C1895" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1895" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+    </row>
+    <row r="1896">
+      <c r="B1896" t="inlineStr">
+        <is>
+          <t>John Terry</t>
+        </is>
+      </c>
+      <c r="C1896" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1896" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+    </row>
+    <row r="1897">
+      <c r="B1897" t="inlineStr">
+        <is>
+          <t>Phil Jagielka</t>
+        </is>
+      </c>
+      <c r="C1897" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="D1897" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+    </row>
+    <row r="1898">
+      <c r="B1898" t="inlineStr">
+        <is>
+          <t>Eden Hazard</t>
+        </is>
+      </c>
+      <c r="C1898" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1898" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+    </row>
+    <row r="1899">
+      <c r="B1899" t="inlineStr">
+        <is>
+          <t>Alexis Sanchez</t>
+        </is>
+      </c>
+      <c r="C1899" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D1899" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+    </row>
+    <row r="1900">
+      <c r="B1900" t="inlineStr">
+        <is>
+          <t>David Silva</t>
+        </is>
+      </c>
+      <c r="C1900" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="D1900" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+    </row>
+    <row r="1901">
+      <c r="B1901" t="inlineStr">
+        <is>
+          <t>Santi Cazorla</t>
+        </is>
+      </c>
+      <c r="C1901" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D1901" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+    </row>
+    <row r="1902">
+      <c r="B1902" t="inlineStr">
+        <is>
+          <t>Sergio Aguero</t>
+        </is>
+      </c>
+      <c r="C1902" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="D1902" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+    </row>
+    <row r="1903">
+      <c r="B1903" t="inlineStr">
+        <is>
+          <t>Harry Kane</t>
+        </is>
+      </c>
+      <c r="C1903" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="D1903" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+    </row>
+    <row r="1904">
+      <c r="B1904" t="inlineStr">
+        <is>
+          <t>Charlie Austin</t>
+        </is>
+      </c>
+      <c r="C1904" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="D1904" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+    </row>
+    <row r="1905">
+      <c r="B1905" t="inlineStr">
+        <is>
+          <t>Tim Howard</t>
+        </is>
+      </c>
+      <c r="C1905" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="D1905" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+    </row>
+    <row r="1906">
+      <c r="B1906" t="inlineStr">
+        <is>
+          <t>Seamus Coleman</t>
+        </is>
+      </c>
+      <c r="C1906" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="D1906" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+    </row>
+    <row r="1907">
+      <c r="B1907" t="inlineStr">
+        <is>
+          <t>John Terry</t>
+        </is>
+      </c>
+      <c r="C1907" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1907" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+    </row>
+    <row r="1908">
+      <c r="B1908" t="inlineStr">
+        <is>
+          <t>Leighton Baines</t>
+        </is>
+      </c>
+      <c r="C1908" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="D1908" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+    </row>
+    <row r="1909">
+      <c r="B1909" t="inlineStr">
+        <is>
+          <t>Yaya Toure</t>
+        </is>
+      </c>
+      <c r="C1909" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="D1909" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+    </row>
+    <row r="1910">
+      <c r="B1910" t="inlineStr">
+        <is>
+          <t>Steven Gerrard</t>
+        </is>
+      </c>
+      <c r="C1910" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1910" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+    </row>
+    <row r="1911">
+      <c r="B1911" t="inlineStr">
+        <is>
+          <t>Eden Hazard</t>
+        </is>
+      </c>
+      <c r="C1911" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1911" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+    </row>
+    <row r="1912">
+      <c r="B1912" t="inlineStr">
+        <is>
+          <t>Adam Lallana</t>
+        </is>
+      </c>
+      <c r="C1912" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="D1912" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+    </row>
+    <row r="1913">
+      <c r="B1913" t="inlineStr">
+        <is>
+          <t>Luis Suarez</t>
+        </is>
+      </c>
+      <c r="C1913" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1913" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+    </row>
+    <row r="1914">
+      <c r="B1914" t="inlineStr">
+        <is>
+          <t>Daniel Sturridge</t>
+        </is>
+      </c>
+      <c r="C1914" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1914" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+    </row>
+    <row r="1915">
+      <c r="B1915" t="inlineStr">
+        <is>
+          <t>Wayne Rooney</t>
+        </is>
+      </c>
+      <c r="C1915" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="D1915" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+    </row>
+    <row r="1916">
+      <c r="B1916" t="inlineStr">
+        <is>
+          <t>Joe Hart</t>
+        </is>
+      </c>
+      <c r="C1916" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="D1916" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+    </row>
+    <row r="1917">
+      <c r="B1917" t="inlineStr">
+        <is>
+          <t>Leighton Baines</t>
+        </is>
+      </c>
+      <c r="C1917" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="D1917" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+    </row>
+    <row r="1918">
+      <c r="B1918" t="inlineStr">
+        <is>
+          <t>Patrice Evra</t>
+        </is>
+      </c>
+      <c r="C1918" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="D1918" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+    </row>
+    <row r="1919">
+      <c r="B1919" t="inlineStr">
+        <is>
+          <t>Branislav Ivanovic</t>
+        </is>
+      </c>
+      <c r="C1919" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1919" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+    </row>
+    <row r="1920">
+      <c r="B1920" t="inlineStr">
+        <is>
+          <t>Gareth Bale</t>
+        </is>
+      </c>
+      <c r="C1920" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="D1920" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+    </row>
+    <row r="1921">
+      <c r="B1921" t="inlineStr">
+        <is>
+          <t>Juan Mata</t>
+        </is>
+      </c>
+      <c r="C1921" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1921" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+    </row>
+    <row r="1922">
+      <c r="B1922" t="inlineStr">
+        <is>
+          <t>Santi Cazorla</t>
+        </is>
+      </c>
+      <c r="C1922" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D1922" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+    </row>
+    <row r="1923">
+      <c r="B1923" t="inlineStr">
+        <is>
+          <t>Theo Walcott</t>
+        </is>
+      </c>
+      <c r="C1923" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D1923" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+    </row>
+    <row r="1924">
+      <c r="B1924" t="inlineStr">
+        <is>
+          <t>Michu</t>
+        </is>
+      </c>
+      <c r="C1924" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="D1924" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+    </row>
+    <row r="1925">
+      <c r="B1925" t="inlineStr">
+        <is>
+          <t>Robin van Persie</t>
+        </is>
+      </c>
+      <c r="C1925" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="D1925" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+    </row>
+    <row r="1926">
+      <c r="B1926" t="inlineStr">
+        <is>
+          <t>Luis Suarez</t>
+        </is>
+      </c>
+      <c r="C1926" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1926" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+    </row>
+    <row r="1927">
+      <c r="B1927" t="inlineStr">
+        <is>
+          <t>Joe Hart</t>
+        </is>
+      </c>
+      <c r="C1927" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="D1927" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+    </row>
+    <row r="1928">
+      <c r="B1928" t="inlineStr">
+        <is>
+          <t>Patrice Evra</t>
+        </is>
+      </c>
+      <c r="C1928" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="D1928" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+    </row>
+    <row r="1929">
+      <c r="B1929" t="inlineStr">
+        <is>
+          <t>Vincent Kompany</t>
+        </is>
+      </c>
+      <c r="C1929" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="D1929" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+    </row>
+    <row r="1930">
+      <c r="B1930" t="inlineStr">
+        <is>
+          <t>Kyle Walker</t>
+        </is>
+      </c>
+      <c r="C1930" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="D1930" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+    </row>
+    <row r="1931">
+      <c r="B1931" t="inlineStr">
+        <is>
+          <t>Clint Dempsey</t>
+        </is>
+      </c>
+      <c r="C1931" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="D1931" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+    </row>
+    <row r="1932">
+      <c r="B1932" t="inlineStr">
+        <is>
+          <t>Gareth Bale</t>
+        </is>
+      </c>
+      <c r="C1932" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="D1932" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+    </row>
+    <row r="1933">
+      <c r="B1933" t="inlineStr">
+        <is>
+          <t>David Silva</t>
+        </is>
+      </c>
+      <c r="C1933" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="D1933" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+    </row>
+    <row r="1934">
+      <c r="B1934" t="inlineStr">
+        <is>
+          <t>Theo Walcott</t>
+        </is>
+      </c>
+      <c r="C1934" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D1934" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+    </row>
+    <row r="1935">
+      <c r="B1935" t="inlineStr">
+        <is>
+          <t>Robin van Persie</t>
+        </is>
+      </c>
+      <c r="C1935" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="D1935" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+    </row>
+    <row r="1936">
+      <c r="B1936" t="inlineStr">
+        <is>
+          <t>Wayne Rooney</t>
+        </is>
+      </c>
+      <c r="C1936" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="D1936" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+    </row>
+    <row r="1937">
+      <c r="B1937" t="inlineStr">
+        <is>
+          <t>Sergio Aguero</t>
+        </is>
+      </c>
+      <c r="C1937" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="D1937" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+    </row>
+    <row r="1938">
+      <c r="B1938" t="inlineStr">
+        <is>
+          <t>Joe Hart</t>
+        </is>
+      </c>
+      <c r="C1938" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="D1938" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+    </row>
+    <row r="1939">
+      <c r="B1939" t="inlineStr">
+        <is>
+          <t>Leighton Baines</t>
+        </is>
+      </c>
+      <c r="C1939" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="D1939" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+    </row>
+    <row r="1940">
+      <c r="B1940" t="inlineStr">
+        <is>
+          <t>Brede Hangeland</t>
+        </is>
+      </c>
+      <c r="C1940" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="D1940" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+    </row>
+    <row r="1941">
+      <c r="B1941" t="inlineStr">
+        <is>
+          <t>Ashley Cole</t>
+        </is>
+      </c>
+      <c r="C1941" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1941" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+    </row>
+    <row r="1942">
+      <c r="B1942" t="inlineStr">
+        <is>
+          <t>Luis Nani</t>
+        </is>
+      </c>
+      <c r="C1942" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="D1942" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+    </row>
+    <row r="1943">
+      <c r="B1943" t="inlineStr">
+        <is>
+          <t>Charlie Adam</t>
+        </is>
+      </c>
+      <c r="C1943" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="D1943" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+    </row>
+    <row r="1944">
+      <c r="B1944" t="inlineStr">
+        <is>
+          <t>Florent Malouda</t>
+        </is>
+      </c>
+      <c r="C1944" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1944" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+    </row>
+    <row r="1945">
+      <c r="B1945" t="inlineStr">
+        <is>
+          <t>Dirk Kuyt</t>
+        </is>
+      </c>
+      <c r="C1945" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1945" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+    </row>
+    <row r="1946">
+      <c r="B1946" t="inlineStr">
+        <is>
+          <t>Carlos Tevez</t>
+        </is>
+      </c>
+      <c r="C1946" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="D1946" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+    </row>
+    <row r="1947">
+      <c r="B1947" t="inlineStr">
+        <is>
+          <t>Dimitar Berbatov</t>
+        </is>
+      </c>
+      <c r="C1947" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="D1947" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+    </row>
+    <row r="1948">
+      <c r="B1948" t="inlineStr">
+        <is>
+          <t>Didier Drogba</t>
+        </is>
+      </c>
+      <c r="C1948" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1948" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+    </row>
+    <row r="1949">
+      <c r="B1949" t="inlineStr">
+        <is>
+          <t>Pepe Reina</t>
+        </is>
+      </c>
+      <c r="C1949" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1949" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+    </row>
+    <row r="1950">
+      <c r="B1950" t="inlineStr">
+        <is>
+          <t>Patrice Evra</t>
+        </is>
+      </c>
+      <c r="C1950" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="D1950" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+    </row>
+    <row r="1951">
+      <c r="B1951" t="inlineStr">
+        <is>
+          <t>Richard Dunne</t>
+        </is>
+      </c>
+      <c r="C1951" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="D1951" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+    </row>
+    <row r="1952">
+      <c r="B1952" t="inlineStr">
+        <is>
+          <t>John Terry</t>
+        </is>
+      </c>
+      <c r="C1952" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1952" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+    </row>
+    <row r="1953">
+      <c r="B1953" t="inlineStr">
+        <is>
+          <t>Frank Lampard</t>
+        </is>
+      </c>
+      <c r="C1953" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1953" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+    </row>
+    <row r="1954">
+      <c r="B1954" t="inlineStr">
+        <is>
+          <t>Cesc Fabregas</t>
+        </is>
+      </c>
+      <c r="C1954" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D1954" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+    </row>
+    <row r="1955">
+      <c r="B1955" t="inlineStr">
+        <is>
+          <t>James Milner</t>
+        </is>
+      </c>
+      <c r="C1955" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="D1955" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+    </row>
+    <row r="1956">
+      <c r="B1956" t="inlineStr">
+        <is>
+          <t>Florent Malouda</t>
+        </is>
+      </c>
+      <c r="C1956" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1956" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+    </row>
+    <row r="1957">
+      <c r="B1957" t="inlineStr">
+        <is>
+          <t>Didier Drogba</t>
+        </is>
+      </c>
+      <c r="C1957" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1957" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+    </row>
+    <row r="1958">
+      <c r="B1958" t="inlineStr">
+        <is>
+          <t>Wayne Rooney</t>
+        </is>
+      </c>
+      <c r="C1958" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="D1958" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+    </row>
+    <row r="1959">
+      <c r="B1959" t="inlineStr">
+        <is>
+          <t>Carlos Tevez</t>
+        </is>
+      </c>
+      <c r="C1959" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="D1959" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+    </row>
+    <row r="1960">
+      <c r="B1960" t="inlineStr">
+        <is>
+          <t>Mark Schwarzer</t>
+        </is>
+      </c>
+      <c r="C1960" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="D1960" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+    </row>
+    <row r="1961">
+      <c r="B1961" t="inlineStr">
+        <is>
+          <t>Nemanja Vidic</t>
+        </is>
+      </c>
+      <c r="C1961" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="D1961" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+    </row>
+    <row r="1962">
+      <c r="B1962" t="inlineStr">
+        <is>
+          <t>Joleon Lescott</t>
+        </is>
+      </c>
+      <c r="C1962" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="D1962" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+    </row>
+    <row r="1963">
+      <c r="B1963" t="inlineStr">
+        <is>
+          <t>Jamie Carragher</t>
+        </is>
+      </c>
+      <c r="C1963" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1963" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+    </row>
+    <row r="1964">
+      <c r="B1964" t="inlineStr">
+        <is>
+          <t>Jose Bosingwa</t>
+        </is>
+      </c>
+      <c r="C1964" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1964" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+    </row>
+    <row r="1965">
+      <c r="B1965" t="inlineStr">
+        <is>
+          <t>Frank Lampard</t>
+        </is>
+      </c>
+      <c r="C1965" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1965" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+    </row>
+    <row r="1966">
+      <c r="B1966" t="inlineStr">
+        <is>
+          <t>Steven Gerrard</t>
+        </is>
+      </c>
+      <c r="C1966" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1966" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+    </row>
+    <row r="1967">
+      <c r="B1967" t="inlineStr">
+        <is>
+          <t>Cristiano Ronaldo</t>
+        </is>
+      </c>
+      <c r="C1967" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="D1967" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+    </row>
+    <row r="1968">
+      <c r="B1968" t="inlineStr">
+        <is>
+          <t>Dirk Kuyt</t>
+        </is>
+      </c>
+      <c r="C1968" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1968" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+    </row>
+    <row r="1969">
+      <c r="B1969" t="inlineStr">
+        <is>
+          <t>Gareth Barry</t>
+        </is>
+      </c>
+      <c r="C1969" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="D1969" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+    </row>
+    <row r="1970">
+      <c r="B1970" t="inlineStr">
+        <is>
+          <t>Nicolas Anelka</t>
+        </is>
+      </c>
+      <c r="C1970" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1970" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+    </row>
+    <row r="1971">
+      <c r="B1971" t="inlineStr">
+        <is>
+          <t>David James</t>
+        </is>
+      </c>
+      <c r="C1971" t="inlineStr">
+        <is>
+          <t>Portsmouth</t>
+        </is>
+      </c>
+      <c r="D1971" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+    </row>
+    <row r="1972">
+      <c r="B1972" t="inlineStr">
+        <is>
+          <t>Joleon Lescott</t>
+        </is>
+      </c>
+      <c r="C1972" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="D1972" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+    </row>
+    <row r="1973">
+      <c r="B1973" t="inlineStr">
+        <is>
+          <t>Rio Ferdinand</t>
+        </is>
+      </c>
+      <c r="C1973" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="D1973" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+    </row>
+    <row r="1974">
+      <c r="B1974" t="inlineStr">
+        <is>
+          <t>Martin Laursen</t>
+        </is>
+      </c>
+      <c r="C1974" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="D1974" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+    </row>
+    <row r="1975">
+      <c r="B1975" t="inlineStr">
+        <is>
+          <t>Cristiano Ronaldo</t>
+        </is>
+      </c>
+      <c r="C1975" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="D1975" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+    </row>
+    <row r="1976">
+      <c r="B1976" t="inlineStr">
+        <is>
+          <t>Cesc Fabregas</t>
+        </is>
+      </c>
+      <c r="C1976" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D1976" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+    </row>
+    <row r="1977">
+      <c r="B1977" t="inlineStr">
+        <is>
+          <t>Steven Gerrard</t>
+        </is>
+      </c>
+      <c r="C1977" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1977" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="1978">
+      <c r="B1978" t="inlineStr">
+        <is>
+          <t>Gareth Barry</t>
+        </is>
+      </c>
+      <c r="C1978" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="D1978" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+    </row>
+    <row r="1979">
+      <c r="B1979" t="inlineStr">
+        <is>
+          <t>Emmanuel Adebayor</t>
+        </is>
+      </c>
+      <c r="C1979" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D1979" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="1980">
+      <c r="B1980" t="inlineStr">
+        <is>
+          <t>Fernando Torres</t>
+        </is>
+      </c>
+      <c r="C1980" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1980" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+    </row>
+    <row r="1981">
+      <c r="B1981" t="inlineStr">
+        <is>
+          <t>Roque Santa Cruz</t>
+        </is>
+      </c>
+      <c r="C1981" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="D1981" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+    </row>
+    <row r="1982">
+      <c r="B1982" t="inlineStr">
+        <is>
+          <t>David James</t>
+        </is>
+      </c>
+      <c r="C1982" t="inlineStr">
+        <is>
+          <t>Portsmouth</t>
+        </is>
+      </c>
+      <c r="D1982" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+    </row>
+    <row r="1983">
+      <c r="B1983" t="inlineStr">
+        <is>
+          <t>Matthew Taylor</t>
+        </is>
+      </c>
+      <c r="C1983" t="inlineStr">
+        <is>
+          <t>Portsmouth</t>
+        </is>
+      </c>
+      <c r="D1983" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+    </row>
+    <row r="1984">
+      <c r="B1984" t="inlineStr">
+        <is>
+          <t>Joleon Lescott</t>
+        </is>
+      </c>
+      <c r="C1984" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="D1984" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+    </row>
+    <row r="1985">
+      <c r="B1985" t="inlineStr">
+        <is>
+          <t>Jamie Carragher</t>
+        </is>
+      </c>
+      <c r="C1985" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1985" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+    </row>
+    <row r="1986">
+      <c r="B1986" t="inlineStr">
+        <is>
+          <t>Cristiano Ronaldo</t>
+        </is>
+      </c>
+      <c r="C1986" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="D1986" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+    </row>
+    <row r="1987">
+      <c r="B1987" t="inlineStr">
+        <is>
+          <t>Frank Lampard</t>
+        </is>
+      </c>
+      <c r="C1987" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1987" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+    </row>
+    <row r="1988">
+      <c r="B1988" t="inlineStr">
+        <is>
+          <t>Cesc Fabregas</t>
+        </is>
+      </c>
+      <c r="C1988" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D1988" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+    </row>
+    <row r="1989">
+      <c r="B1989" t="inlineStr">
+        <is>
+          <t>Steven Gerrard</t>
+        </is>
+      </c>
+      <c r="C1989" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1989" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+    </row>
+    <row r="1990">
+      <c r="B1990" t="inlineStr">
+        <is>
+          <t>Mikel Arteta</t>
+        </is>
+      </c>
+      <c r="C1990" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="D1990" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+    </row>
+    <row r="1991">
+      <c r="B1991" t="inlineStr">
+        <is>
+          <t>Wayne Rooney</t>
+        </is>
+      </c>
+      <c r="C1991" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="D1991" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+    </row>
+    <row r="1992">
+      <c r="B1992" t="inlineStr">
+        <is>
+          <t>Didier Drogba</t>
+        </is>
+      </c>
+      <c r="C1992" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1992" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+    </row>
+    <row r="1993">
+      <c r="B1993" t="inlineStr">
+        <is>
+          <t>Edwin van der Sar</t>
+        </is>
+      </c>
+      <c r="C1993" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="D1993" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+    </row>
+    <row r="1994">
+      <c r="B1994" t="inlineStr">
+        <is>
+          <t>John Terry</t>
+        </is>
+      </c>
+      <c r="C1994" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1994" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+    </row>
+    <row r="1995">
+      <c r="B1995" t="inlineStr">
+        <is>
+          <t>William Gallas</t>
+        </is>
+      </c>
+      <c r="C1995" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1995" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+    </row>
+    <row r="1996">
+      <c r="B1996" t="inlineStr">
+        <is>
+          <t>Steven Finnan</t>
+        </is>
+      </c>
+      <c r="C1996" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1996" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+    </row>
+    <row r="1997">
+      <c r="B1997" t="inlineStr">
+        <is>
+          <t>Rio Ferdinand</t>
+        </is>
+      </c>
+      <c r="C1997" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="D1997" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+    </row>
+    <row r="1998">
+      <c r="B1998" t="inlineStr">
+        <is>
+          <t>Frank Lampard</t>
+        </is>
+      </c>
+      <c r="C1998" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D1998" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+    </row>
+    <row r="1999">
+      <c r="B1999" t="inlineStr">
+        <is>
+          <t>Steven Gerrard</t>
+        </is>
+      </c>
+      <c r="C1999" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D1999" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+    </row>
+    <row r="2000">
+      <c r="B2000" t="inlineStr">
+        <is>
+          <t>Morten Gamst Pedersen</t>
+        </is>
+      </c>
+      <c r="C2000" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="D2000" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+    </row>
+    <row r="2001">
+      <c r="B2001" t="inlineStr">
+        <is>
+          <t>Thierry Henry</t>
+        </is>
+      </c>
+      <c r="C2001" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D2001" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+    </row>
+    <row r="2002">
+      <c r="B2002" t="inlineStr">
+        <is>
+          <t>Ruud van Nistelrooy</t>
+        </is>
+      </c>
+      <c r="C2002" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="D2002" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+    </row>
+    <row r="2003">
+      <c r="B2003" t="inlineStr">
+        <is>
+          <t>Darren Bent</t>
+        </is>
+      </c>
+      <c r="C2003" t="inlineStr">
+        <is>
+          <t>Charlton</t>
+        </is>
+      </c>
+      <c r="D2003" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+    </row>
+    <row r="2004">
+      <c r="B2004" t="inlineStr">
+        <is>
+          <t>Petr Cech</t>
+        </is>
+      </c>
+      <c r="C2004" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D2004" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+    </row>
+    <row r="2005">
+      <c r="B2005" t="inlineStr">
+        <is>
+          <t>John Terry</t>
+        </is>
+      </c>
+      <c r="C2005" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D2005" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+    </row>
+    <row r="2006">
+      <c r="B2006" t="inlineStr">
+        <is>
+          <t>John Arne Riise</t>
+        </is>
+      </c>
+      <c r="C2006" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D2006" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+    </row>
+    <row r="2007">
+      <c r="B2007" t="inlineStr">
+        <is>
+          <t>William Gallas</t>
+        </is>
+      </c>
+      <c r="C2007" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D2007" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+    </row>
+    <row r="2008">
+      <c r="B2008" t="inlineStr">
+        <is>
+          <t>Frank Lampard</t>
+        </is>
+      </c>
+      <c r="C2008" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D2008" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+    </row>
+    <row r="2009">
+      <c r="B2009" t="inlineStr">
+        <is>
+          <t>Robert Pires</t>
+        </is>
+      </c>
+      <c r="C2009" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D2009" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+    </row>
+    <row r="2010">
+      <c r="B2010" t="inlineStr">
+        <is>
+          <t>Paul Scholes</t>
+        </is>
+      </c>
+      <c r="C2010" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="D2010" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+    </row>
+    <row r="2011">
+      <c r="B2011" t="inlineStr">
+        <is>
+          <t>Damien Duff</t>
+        </is>
+      </c>
+      <c r="C2011" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D2011" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+    </row>
+    <row r="2012">
+      <c r="B2012" t="inlineStr">
+        <is>
+          <t>Stewart Downing</t>
+        </is>
+      </c>
+      <c r="C2012" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="D2012" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+    </row>
+    <row r="2013">
+      <c r="B2013" t="inlineStr">
+        <is>
+          <t>Thierry Henry</t>
+        </is>
+      </c>
+      <c r="C2013" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D2013" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+    </row>
+    <row r="2014">
+      <c r="B2014" t="inlineStr">
+        <is>
+          <t>Andrew Johnson</t>
+        </is>
+      </c>
+      <c r="C2014" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="D2014" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+    </row>
+    <row r="2015">
+      <c r="B2015" t="inlineStr">
+        <is>
+          <t>Edwin van der Sar</t>
+        </is>
+      </c>
+      <c r="C2015" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="D2015" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+    </row>
+    <row r="2016">
+      <c r="B2016" t="inlineStr">
+        <is>
+          <t>Sami Hyypia</t>
+        </is>
+      </c>
+      <c r="C2016" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D2016" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+    </row>
+    <row r="2017">
+      <c r="B2017" t="inlineStr">
+        <is>
+          <t>John Terry</t>
+        </is>
+      </c>
+      <c r="C2017" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D2017" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+    </row>
+    <row r="2018">
+      <c r="B2018" t="inlineStr">
+        <is>
+          <t>Wayne Bridge</t>
+        </is>
+      </c>
+      <c r="C2018" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D2018" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+    </row>
+    <row r="2019">
+      <c r="B2019" t="inlineStr">
+        <is>
+          <t>Robert Pires</t>
+        </is>
+      </c>
+      <c r="C2019" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D2019" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+    </row>
+    <row r="2020">
+      <c r="B2020" t="inlineStr">
+        <is>
+          <t>Frank Lampard</t>
+        </is>
+      </c>
+      <c r="C2020" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D2020" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+    </row>
+    <row r="2021">
+      <c r="B2021" t="inlineStr">
+        <is>
+          <t>Steed Malbranque</t>
+        </is>
+      </c>
+      <c r="C2021" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="D2021" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+    </row>
+    <row r="2022">
+      <c r="B2022" t="inlineStr">
+        <is>
+          <t>Ryan Giggs</t>
+        </is>
+      </c>
+      <c r="C2022" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="D2022" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+    </row>
+    <row r="2023">
+      <c r="B2023" t="inlineStr">
+        <is>
+          <t>Thierry Henry</t>
+        </is>
+      </c>
+      <c r="C2023" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D2023" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+    </row>
+    <row r="2024">
+      <c r="B2024" t="inlineStr">
+        <is>
+          <t>Alan Shearer</t>
+        </is>
+      </c>
+      <c r="C2024" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="D2024" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+    </row>
+    <row r="2025">
+      <c r="B2025" t="inlineStr">
+        <is>
+          <t>Louis Saha</t>
+        </is>
+      </c>
+      <c r="C2025" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="D2025" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+    </row>
+    <row r="2026">
+      <c r="B2026" t="inlineStr">
+        <is>
+          <t>Brad Friedel</t>
+        </is>
+      </c>
+      <c r="C2026" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="D2026" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+    </row>
+    <row r="2027">
+      <c r="B2027" t="inlineStr">
+        <is>
+          <t>Sami Hyypia</t>
+        </is>
+      </c>
+      <c r="C2027" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D2027" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+    </row>
+    <row r="2028">
+      <c r="B2028" t="inlineStr">
+        <is>
+          <t>Mikael Silvestre</t>
+        </is>
+      </c>
+      <c r="C2028" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="D2028" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+    </row>
+    <row r="2029">
+      <c r="B2029" t="inlineStr">
+        <is>
+          <t>William Gallas</t>
+        </is>
+      </c>
+      <c r="C2029" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D2029" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+    </row>
+    <row r="2030">
+      <c r="B2030" t="inlineStr">
+        <is>
+          <t>Paul Scholes</t>
+        </is>
+      </c>
+      <c r="C2030" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="D2030" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+    </row>
+    <row r="2031">
+      <c r="B2031" t="inlineStr">
+        <is>
+          <t>Harry Kewell</t>
+        </is>
+      </c>
+      <c r="C2031" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="D2031" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+    </row>
+    <row r="2032">
+      <c r="B2032" t="inlineStr">
+        <is>
+          <t>Ryan Giggs</t>
+        </is>
+      </c>
+      <c r="C2032" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="D2032" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+    </row>
+    <row r="2033">
+      <c r="B2033" t="inlineStr">
+        <is>
+          <t>Frank Lampard</t>
+        </is>
+      </c>
+      <c r="C2033" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D2033" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+    </row>
+    <row r="2034">
+      <c r="B2034" t="inlineStr">
+        <is>
+          <t>Thierry Henry</t>
+        </is>
+      </c>
+      <c r="C2034" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D2034" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+    </row>
+    <row r="2035">
+      <c r="B2035" t="inlineStr">
+        <is>
+          <t>James Beattie</t>
+        </is>
+      </c>
+      <c r="C2035" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="D2035" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+    </row>
+    <row r="2036">
+      <c r="B2036" t="inlineStr">
+        <is>
+          <t>Ruud van Nistelrooy</t>
+        </is>
+      </c>
+      <c r="C2036" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="D2036" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+    </row>
+    <row r="2037">
+      <c r="B2037" t="inlineStr">
+        <is>
+          <t>Brad Friedel</t>
+        </is>
+      </c>
+      <c r="C2037" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="D2037" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+    </row>
+    <row r="2038">
+      <c r="B2038" t="inlineStr">
+        <is>
+          <t>Andrew Robertson</t>
+        </is>
+      </c>
+      <c r="C2038" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D2038" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+    </row>
+    <row r="2039">
+      <c r="B2039" t="inlineStr">
+        <is>
+          <t>Trent Alexander-Arnold</t>
+        </is>
+      </c>
+      <c r="C2039" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D2039" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+    </row>
+    <row r="2040">
+      <c r="B2040" t="inlineStr">
+        <is>
+          <t>Virgil van Dijk</t>
+        </is>
+      </c>
+      <c r="C2040" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D2040" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+    </row>
+    <row r="2041">
+      <c r="B2041" t="inlineStr">
+        <is>
+          <t>Mohamed Salah</t>
+        </is>
+      </c>
+      <c r="C2041" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D2041" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+    </row>
+    <row r="2042">
+      <c r="B2042" t="inlineStr">
+        <is>
+          <t>Frank Lampard</t>
+        </is>
+      </c>
+      <c r="C2042" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D2042" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+    </row>
+    <row r="2043">
+      <c r="B2043" t="inlineStr">
+        <is>
+          <t>Cristiano Ronaldo</t>
+        </is>
+      </c>
+      <c r="C2043" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="D2043" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+    </row>
+    <row r="2044">
+      <c r="B2044" t="inlineStr">
+        <is>
+          <t>Alexis Sanchez</t>
+        </is>
+      </c>
+      <c r="C2044" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D2044" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+    </row>
+    <row r="2045">
+      <c r="B2045" t="inlineStr">
+        <is>
+          <t>Luis Suarez</t>
+        </is>
+      </c>
+      <c r="C2045" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D2045" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+    </row>
+    <row r="2046">
+      <c r="B2046" t="inlineStr">
+        <is>
+          <t>Erling Haaland</t>
+        </is>
+      </c>
+      <c r="C2046" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="D2046" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+    </row>
+    <row r="2047">
+      <c r="B2047" t="inlineStr">
+        <is>
+          <t>Thierry Henry</t>
+        </is>
+      </c>
+      <c r="C2047" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D2047" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+    </row>
+    <row r="2048">
+      <c r="A2048" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2049">
+      <c r="A2049" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2050">
+      <c r="A2050" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2051">
+      <c r="A2051" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2052">
+      <c r="A2052" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2053">
+      <c r="A2053" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2054">
+      <c r="A2054" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2055">
+      <c r="A2055" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2056">
+      <c r="A2056" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2057">
+      <c r="A2057" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2058">
+      <c r="A2058" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2312">
+      <c r="A2312" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2313">
+      <c r="A2313" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2314">
+      <c r="A2314" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2315">
+      <c r="A2315" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2316">
+      <c r="A2316" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2317">
+      <c r="A2317" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2318">
+      <c r="A2318" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2319">
+      <c r="A2319" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2320">
+      <c r="A2320" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2321">
+      <c r="A2321" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2322">
+      <c r="A2322" t="inlineStr">
+        <is>
+          <t>2024/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2554"/>
+    <row r="2555"/>
+    <row r="2556"/>
+    <row r="2557"/>
+    <row r="2558"/>
+    <row r="2559"/>
+    <row r="2560"/>
+    <row r="2561"/>
+    <row r="2562"/>
+    <row r="2563"/>
+    <row r="2564"/>
+    <row r="2565">
+      <c r="A2565" t="inlineStr"/>
+      <c r="B2565" t="inlineStr"/>
+      <c r="C2565" t="inlineStr"/>
+      <c r="D2565" t="inlineStr"/>
+    </row>
+    <row r="2566">
+      <c r="A2566" t="inlineStr"/>
+      <c r="B2566" t="inlineStr"/>
+      <c r="C2566" t="inlineStr"/>
+      <c r="D2566" t="inlineStr"/>
+    </row>
+    <row r="2567">
+      <c r="A2567" t="inlineStr"/>
+      <c r="B2567" t="inlineStr"/>
+      <c r="C2567" t="inlineStr"/>
+      <c r="D2567" t="inlineStr"/>
+    </row>
+    <row r="2568">
+      <c r="A2568" t="inlineStr"/>
+      <c r="B2568" t="inlineStr"/>
+      <c r="C2568" t="inlineStr"/>
+      <c r="D2568" t="inlineStr"/>
+    </row>
+    <row r="2569">
+      <c r="A2569" t="inlineStr"/>
+      <c r="B2569" t="inlineStr"/>
+      <c r="C2569" t="inlineStr"/>
+      <c r="D2569" t="inlineStr"/>
+    </row>
+    <row r="2570">
+      <c r="A2570" t="inlineStr"/>
+      <c r="B2570" t="inlineStr"/>
+      <c r="C2570" t="inlineStr"/>
+      <c r="D2570" t="inlineStr"/>
+    </row>
+    <row r="2571">
+      <c r="A2571" t="inlineStr"/>
+      <c r="B2571" t="inlineStr"/>
+      <c r="C2571" t="inlineStr"/>
+      <c r="D2571" t="inlineStr"/>
+    </row>
+    <row r="2572">
+      <c r="A2572" t="inlineStr"/>
+      <c r="B2572" t="inlineStr"/>
+      <c r="C2572" t="inlineStr"/>
+      <c r="D2572" t="inlineStr"/>
+    </row>
+    <row r="2573">
+      <c r="A2573" t="inlineStr"/>
+      <c r="B2573" t="inlineStr"/>
+      <c r="C2573" t="inlineStr"/>
+      <c r="D2573" t="inlineStr"/>
+    </row>
+    <row r="2574">
+      <c r="A2574" t="inlineStr"/>
+      <c r="B2574" t="inlineStr"/>
+      <c r="C2574" t="inlineStr"/>
+      <c r="D2574" t="inlineStr"/>
+    </row>
+    <row r="2575">
+      <c r="A2575" t="inlineStr"/>
+      <c r="B2575" t="inlineStr"/>
+      <c r="C2575" t="inlineStr"/>
+      <c r="D2575" t="inlineStr"/>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>